--- a/world.xlsx
+++ b/world.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E944EEC-8136-8543-9482-EB55514E8698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7A6FEA-5232-E74F-BE80-E64E8A2EE629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200" xr2:uid="{B828C8E6-3DF2-B446-9890-8798DF3827A5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{B828C8E6-3DF2-B446-9890-8798DF3827A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="460">
   <si>
     <t>NAME</t>
   </si>
@@ -1190,19 +1190,226 @@
     <t>↑ 9 (0.27%)</t>
   </si>
   <si>
-    <t>↑ 1,171 (3.45%)</t>
-  </si>
-  <si>
-    <t>↑ 39 (1.33%)</t>
-  </si>
-  <si>
-    <t>↑ 20 (1.24%)</t>
-  </si>
-  <si>
     <t>Syria</t>
   </si>
   <si>
     <t>सिरिया</t>
+  </si>
+  <si>
+    <t>↑ 1,504 (4.47%)</t>
+  </si>
+  <si>
+    <t>↑ 45 (1.33%)</t>
+  </si>
+  <si>
+    <t>↑ 1,141 (3.96%)</t>
+  </si>
+  <si>
+    <t>↑ 41 (2.31%)</t>
+  </si>
+  <si>
+    <t>↑ 1,286 (5.17%)</t>
+  </si>
+  <si>
+    <t>↑ 17 (18.08%)</t>
+  </si>
+  <si>
+    <t>↑ 127 (7.53%)</t>
+  </si>
+  <si>
+    <t>↑ 302 (4.04%)</t>
+  </si>
+  <si>
+    <t>↑ 2 (2.04%)</t>
+  </si>
+  <si>
+    <t>↑ 342 (10.05%)</t>
+  </si>
+  <si>
+    <t>↑ 13 (17.33%)</t>
+  </si>
+  <si>
+    <t>↑ 97 (2.70%)</t>
+  </si>
+  <si>
+    <t>↑ 1 (14.28%)</t>
+  </si>
+  <si>
+    <t>↑ 3 (14.28%)</t>
+  </si>
+  <si>
+    <t>↑ 100 (6.21%)</t>
+  </si>
+  <si>
+    <t>↑ 58 (3.75%)</t>
+  </si>
+  <si>
+    <t>↑ 55 (3.63%)</t>
+  </si>
+  <si>
+    <t>↑ 212 (16.23%)</t>
+  </si>
+  <si>
+    <t>↑ 4 (40%)</t>
+  </si>
+  <si>
+    <t>↑ 167 (15.59%)</t>
+  </si>
+  <si>
+    <t>↑ 45 (4.01%)</t>
+  </si>
+  <si>
+    <t>↑ 28 (3.60%)</t>
+  </si>
+  <si>
+    <t>↑ 1 (20%)</t>
+  </si>
+  <si>
+    <t>↑ 122 (20.36%)</t>
+  </si>
+  <si>
+    <t>↑ 60 (9.58%)</t>
+  </si>
+  <si>
+    <t>↑ 15 (2.36%)</t>
+  </si>
+  <si>
+    <t>↑ 1 (6.66%)</t>
+  </si>
+  <si>
+    <t>↑ 65 (12.64%)</t>
+  </si>
+  <si>
+    <t>↑ 1 (2.08%)</t>
+  </si>
+  <si>
+    <t>↑ 82 (21.57%)</t>
+  </si>
+  <si>
+    <t>↑ 8 (32%)</t>
+  </si>
+  <si>
+    <t>↑ 71 (19.34%)</t>
+  </si>
+  <si>
+    <t>↑ 1 (33.33%)</t>
+  </si>
+  <si>
+    <t>↑ 29 (7.32%)</t>
+  </si>
+  <si>
+    <t>↑ 1 (50%)</t>
+  </si>
+  <si>
+    <t>↑ 38 (11.91%)</t>
+  </si>
+  <si>
+    <t>↑ 26 (7.97%)</t>
+  </si>
+  <si>
+    <t>↑ 3 (0.89%)</t>
+  </si>
+  <si>
+    <t>↑ 65 (25.89%)</t>
+  </si>
+  <si>
+    <t>↑ 52 (20.47%)</t>
+  </si>
+  <si>
+    <t>↑ 4 (1.73%)</t>
+  </si>
+  <si>
+    <t>↑ 26 (15.38%)</t>
+  </si>
+  <si>
+    <t>↑ 3 (1.60%)</t>
+  </si>
+  <si>
+    <t>↑ 1 (0.53%)</t>
+  </si>
+  <si>
+    <t>↑ 41 (29.49%)</t>
+  </si>
+  <si>
+    <t>↑ 36 (27.48%)</t>
+  </si>
+  <si>
+    <t>↑ 1 (16.66%)</t>
+  </si>
+  <si>
+    <t>↑ 11 (7.69%)</t>
+  </si>
+  <si>
+    <t>↑ 2 (1.58%)</t>
+  </si>
+  <si>
+    <t>↑ 7 (6.08%)</t>
+  </si>
+  <si>
+    <t>↑ 8 (7.07%)</t>
+  </si>
+  <si>
+    <t>↑ 3 (3.40%)</t>
+  </si>
+  <si>
+    <t>↑ 3 (15%)</t>
+  </si>
+  <si>
+    <t>↑ 5 (6.09%)</t>
+  </si>
+  <si>
+    <t>↑ 2 (2.38%)</t>
+  </si>
+  <si>
+    <t>↑ 7 (10%)</t>
+  </si>
+  <si>
+    <t>↑ 11 (20%)</t>
+  </si>
+  <si>
+    <t>↑ 2 (3.33%)</t>
+  </si>
+  <si>
+    <t>↑ 16 (40%)</t>
+  </si>
+  <si>
+    <t>↑ 9 (24.32%)</t>
+  </si>
+  <si>
+    <t>↑ 3 (6.97%)</t>
+  </si>
+  <si>
+    <t>↑ 5 (16.66%)</t>
+  </si>
+  <si>
+    <t>↑ 6 (22.22%)</t>
+  </si>
+  <si>
+    <t>↑ 3 (12.5%)</t>
+  </si>
+  <si>
+    <t>↑ 11 (78.57%)</t>
+  </si>
+  <si>
+    <t>↑ 1 (4.34%)</t>
+  </si>
+  <si>
+    <t>↑ 1 (4.76%)</t>
+  </si>
+  <si>
+    <t>↑ 3 (21.42%)</t>
+  </si>
+  <si>
+    <t>↑ 4 (10%)</t>
+  </si>
+  <si>
+    <t>↑ 1 (10%)</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>ग्रेनाडा</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1902,7 @@
   <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H175"/>
+      <selection activeCell="B2" sqref="B2:B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1747,32 +1954,26 @@
         <v>TOTAL</v>
       </c>
       <c r="B2" s="9" t="str">
-        <f>INDEX($J$2:$J$175,MATCH(A2,$I$2:$I$175,0))</f>
+        <f>INDEX($J$2:$J$176,MATCH(A2,$I$2:$I$176,0))</f>
         <v>जम्मा</v>
       </c>
       <c r="C2" s="13">
         <f>Update!B2</f>
-        <v>343222</v>
-      </c>
-      <c r="D2" s="13">
-        <f>Update!C2</f>
-        <v>0</v>
-      </c>
+        <v>347051</v>
+      </c>
+      <c r="D2" s="13"/>
       <c r="E2" s="12">
         <f>Update!D2</f>
-        <v>14730</v>
-      </c>
-      <c r="F2" s="12">
-        <f>Update!E2</f>
-        <v>0</v>
-      </c>
+        <v>14789</v>
+      </c>
+      <c r="F2" s="12"/>
       <c r="G2" s="11">
         <f>Update!F2</f>
-        <v>97344</v>
+        <v>97952</v>
       </c>
       <c r="H2" s="14">
         <f>Update!G2</f>
-        <v>9196</v>
+        <v>9870</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>6</v>
@@ -1787,7 +1988,7 @@
         <v>China</v>
       </c>
       <c r="B3" s="9" t="str">
-        <f t="shared" ref="B3:B66" si="0">INDEX($J$2:$J$175,MATCH(A3,$I$2:$I$175,0))</f>
+        <f t="shared" ref="B3:B66" si="0">INDEX($J$2:$J$176,MATCH(A3,$I$2:$I$176,0))</f>
         <v>चीन</v>
       </c>
       <c r="C3" s="13">
@@ -1834,18 +2035,12 @@
         <f>Update!B4</f>
         <v>59138</v>
       </c>
-      <c r="D4" s="13">
-        <f>Update!C4</f>
-        <v>0</v>
-      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="12">
         <f>Update!D4</f>
         <v>5476</v>
       </c>
-      <c r="F4" s="12">
-        <f>Update!E4</f>
-        <v>0</v>
-      </c>
+      <c r="F4" s="12"/>
       <c r="G4" s="11">
         <f>Update!F4</f>
         <v>7024</v>
@@ -1872,19 +2067,19 @@
       </c>
       <c r="C5" s="13">
         <f>Update!B5</f>
-        <v>35106</v>
+        <v>35146</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>Update!C5</f>
-        <v>↑ 1,171 (3.45%)</v>
+        <v>↑ 1,504 (4.47%)</v>
       </c>
       <c r="E5" s="12">
         <f>Update!D5</f>
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F5" s="12" t="str">
         <f>Update!E5</f>
-        <v>↑ 39 (1.33%)</v>
+        <v>↑ 45 (1.33%)</v>
       </c>
       <c r="G5" s="11">
         <f>Update!F5</f>
@@ -1912,19 +2107,19 @@
       </c>
       <c r="C6" s="13">
         <f>Update!B6</f>
-        <v>28768</v>
-      </c>
-      <c r="D6" s="13">
+        <v>29909</v>
+      </c>
+      <c r="D6" s="13" t="str">
         <f>Update!C6</f>
-        <v>0</v>
+        <v>↑ 1,141 (3.96%)</v>
       </c>
       <c r="E6" s="12">
         <f>Update!D6</f>
-        <v>1772</v>
-      </c>
-      <c r="F6" s="12">
+        <v>1813</v>
+      </c>
+      <c r="F6" s="12" t="str">
         <f>Update!E6</f>
-        <v>0</v>
+        <v>↑ 41 (2.31%)</v>
       </c>
       <c r="G6" s="11">
         <f>Update!F6</f>
@@ -1932,7 +2127,7 @@
       </c>
       <c r="H6" s="14">
         <f>Update!G6</f>
-        <v>1141</v>
+        <v>1785</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>100</v>
@@ -1952,19 +2147,19 @@
       </c>
       <c r="C7" s="13">
         <f>Update!B7</f>
-        <v>24873</v>
-      </c>
-      <c r="D7" s="13">
+        <v>26159</v>
+      </c>
+      <c r="D7" s="13" t="str">
         <f>Update!C7</f>
-        <v>0</v>
+        <v>↑ 1,286 (5.17%)</v>
       </c>
       <c r="E7" s="12">
         <f>Update!D7</f>
-        <v>94</v>
-      </c>
-      <c r="F7" s="12">
+        <v>111</v>
+      </c>
+      <c r="F7" s="12" t="str">
         <f>Update!E7</f>
-        <v>0</v>
+        <v>↑ 17 (18.08%)</v>
       </c>
       <c r="G7" s="11">
         <f>Update!F7</f>
@@ -1994,17 +2189,14 @@
         <f>Update!B8</f>
         <v>21638</v>
       </c>
-      <c r="D8" s="13">
-        <f>Update!C8</f>
-        <v>0</v>
-      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="12">
         <f>Update!D8</f>
-        <v>1685</v>
-      </c>
-      <c r="F8" s="12">
+        <v>1812</v>
+      </c>
+      <c r="F8" s="12" t="str">
         <f>Update!E8</f>
-        <v>0</v>
+        <v>↑ 127 (7.53%)</v>
       </c>
       <c r="G8" s="11">
         <f>Update!F8</f>
@@ -2034,18 +2226,12 @@
         <f>Update!B9</f>
         <v>16018</v>
       </c>
-      <c r="D9" s="13">
-        <f>Update!C9</f>
-        <v>0</v>
-      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="12">
         <f>Update!D9</f>
         <v>674</v>
       </c>
-      <c r="F9" s="12">
-        <f>Update!E9</f>
-        <v>0</v>
-      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="11">
         <f>Update!F9</f>
         <v>2200</v>
@@ -2072,23 +2258,17 @@
       </c>
       <c r="C10" s="13">
         <f>Update!B10</f>
-        <v>8897</v>
-      </c>
-      <c r="D10" s="13">
-        <f>Update!C10</f>
-        <v>0</v>
-      </c>
+        <v>8961</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="12">
         <f>Update!D10</f>
-        <v>104</v>
-      </c>
-      <c r="F10" s="12">
-        <f>Update!E10</f>
-        <v>0</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="11">
         <f>Update!F10</f>
-        <v>2909</v>
+        <v>3166</v>
       </c>
       <c r="H10" s="14">
         <f>Update!G10</f>
@@ -2112,19 +2292,19 @@
       </c>
       <c r="C11" s="13">
         <f>Update!B11</f>
-        <v>7474</v>
-      </c>
-      <c r="D11" s="13">
+        <v>7776</v>
+      </c>
+      <c r="D11" s="13" t="str">
         <f>Update!C11</f>
-        <v>0</v>
+        <v>↑ 302 (4.04%)</v>
       </c>
       <c r="E11" s="12">
         <f>Update!D11</f>
-        <v>98</v>
-      </c>
-      <c r="F11" s="12">
+        <v>100</v>
+      </c>
+      <c r="F11" s="12" t="str">
         <f>Update!E11</f>
-        <v>0</v>
+        <v>↑ 2 (2.04%)</v>
       </c>
       <c r="G11" s="11">
         <f>Update!F11</f>
@@ -2154,21 +2334,15 @@
         <f>Update!B12</f>
         <v>5683</v>
       </c>
-      <c r="D12" s="13">
-        <f>Update!C12</f>
-        <v>0</v>
-      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="12">
         <f>Update!D12</f>
         <v>281</v>
       </c>
-      <c r="F12" s="12">
-        <f>Update!E12</f>
-        <v>0</v>
-      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="11">
         <f>Update!F12</f>
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="H12" s="14">
         <f>Update!G12</f>
@@ -2194,25 +2368,19 @@
         <f>Update!B13</f>
         <v>4204</v>
       </c>
-      <c r="D13" s="13">
-        <f>Update!C13</f>
-        <v>0</v>
-      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="12">
         <f>Update!D13</f>
         <v>179</v>
       </c>
-      <c r="F13" s="12">
-        <f>Update!E13</f>
-        <v>0</v>
-      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="11">
         <f>Update!F13</f>
         <v>2</v>
       </c>
       <c r="H13" s="14">
         <f>Update!G13</f>
-        <v>177</v>
+        <v>405</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>44</v>
@@ -2224,35 +2392,35 @@
     <row r="14" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="str">
         <f>Update!A14</f>
-        <v>Austria</v>
+        <v>Belgium</v>
       </c>
       <c r="B14" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>अस्ट्रिया</v>
+        <v>बेल्जियम</v>
       </c>
       <c r="C14" s="13">
         <f>Update!B14</f>
-        <v>3582</v>
-      </c>
-      <c r="D14" s="13">
+        <v>3743</v>
+      </c>
+      <c r="D14" s="13" t="str">
         <f>Update!C14</f>
-        <v>0</v>
+        <v>↑ 342 (10.05%)</v>
       </c>
       <c r="E14" s="12">
         <f>Update!D14</f>
-        <v>16</v>
-      </c>
-      <c r="F14" s="12">
+        <v>88</v>
+      </c>
+      <c r="F14" s="12" t="str">
         <f>Update!E14</f>
-        <v>0</v>
+        <v>↑ 13 (17.33%)</v>
       </c>
       <c r="G14" s="11">
         <f>Update!F14</f>
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="H14" s="14">
         <f>Update!G14</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>123</v>
@@ -2264,23 +2432,23 @@
     <row r="15" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="str">
         <f>Update!A15</f>
-        <v>Belgium</v>
+        <v>Austria</v>
       </c>
       <c r="B15" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>बेल्जियम</v>
+        <v>अस्ट्रिया</v>
       </c>
       <c r="C15" s="13">
         <f>Update!B15</f>
-        <v>3401</v>
-      </c>
-      <c r="D15" s="13">
+        <v>3679</v>
+      </c>
+      <c r="D15" s="13" t="str">
         <f>Update!C15</f>
-        <v>0</v>
+        <v>↑ 97 (2.70%)</v>
       </c>
       <c r="E15" s="12">
         <f>Update!D15</f>
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="F15" s="12">
         <f>Update!E15</f>
@@ -2288,11 +2456,11 @@
       </c>
       <c r="G15" s="11">
         <f>Update!F15</f>
-        <v>340</v>
+        <v>9</v>
       </c>
       <c r="H15" s="14">
         <f>Update!G15</f>
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>172</v>
@@ -2314,17 +2482,14 @@
         <f>Update!B16</f>
         <v>2385</v>
       </c>
-      <c r="D16" s="13">
-        <f>Update!C16</f>
-        <v>0</v>
-      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="12">
         <f>Update!D16</f>
-        <v>7</v>
-      </c>
-      <c r="F16" s="12">
+        <v>8</v>
+      </c>
+      <c r="F16" s="12" t="str">
         <f>Update!E16</f>
-        <v>0</v>
+        <v>↑ 1 (14.28%)</v>
       </c>
       <c r="G16" s="11">
         <f>Update!F16</f>
@@ -2354,17 +2519,14 @@
         <f>Update!B17</f>
         <v>1934</v>
       </c>
-      <c r="D17" s="13">
-        <f>Update!C17</f>
-        <v>0</v>
-      </c>
+      <c r="D17" s="13"/>
       <c r="E17" s="12">
         <f>Update!D17</f>
-        <v>21</v>
-      </c>
-      <c r="F17" s="12">
+        <v>24</v>
+      </c>
+      <c r="F17" s="12" t="str">
         <f>Update!E17</f>
-        <v>0</v>
+        <v>↑ 3 (14.28%)</v>
       </c>
       <c r="G17" s="11">
         <f>Update!F17</f>
@@ -2392,11 +2554,11 @@
       </c>
       <c r="C18" s="13">
         <f>Update!B18</f>
-        <v>1629</v>
+        <v>1709</v>
       </c>
       <c r="D18" s="13" t="str">
         <f>Update!C18</f>
-        <v>↑ 20 (1.24%)</v>
+        <v>↑ 100 (6.21%)</v>
       </c>
       <c r="E18" s="12">
         <f>Update!D18</f>
@@ -2408,7 +2570,7 @@
       </c>
       <c r="G18" s="11">
         <f>Update!F18</f>
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="H18" s="14">
         <f>Update!G18</f>
@@ -2424,23 +2586,23 @@
     <row r="19" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
         <f>Update!A19</f>
-        <v>Portugal</v>
+        <v>Brazil</v>
       </c>
       <c r="B19" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>पोर्चुगल</v>
+        <v>ब्राजिल</v>
       </c>
       <c r="C19" s="13">
         <f>Update!B19</f>
-        <v>1600</v>
-      </c>
-      <c r="D19" s="13">
+        <v>1604</v>
+      </c>
+      <c r="D19" s="13" t="str">
         <f>Update!C19</f>
-        <v>0</v>
+        <v>↑ 58 (3.75%)</v>
       </c>
       <c r="E19" s="12">
         <f>Update!D19</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F19" s="12">
         <f>Update!E19</f>
@@ -2448,11 +2610,11 @@
       </c>
       <c r="G19" s="11">
         <f>Update!F19</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="14">
         <f>Update!G19</f>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>118</v>
@@ -2464,23 +2626,20 @@
     <row r="20" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f>Update!A20</f>
-        <v>Brazil</v>
+        <v>Portugal</v>
       </c>
       <c r="B20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ब्राजिल</v>
+        <v>पोर्चुगल</v>
       </c>
       <c r="C20" s="13">
         <f>Update!B20</f>
-        <v>1546</v>
-      </c>
-      <c r="D20" s="13">
-        <f>Update!C20</f>
-        <v>0</v>
-      </c>
+        <v>1600</v>
+      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="12">
         <f>Update!D20</f>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F20" s="12">
         <f>Update!E20</f>
@@ -2488,11 +2647,11 @@
       </c>
       <c r="G20" s="11">
         <f>Update!F20</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H20" s="14">
         <f>Update!G20</f>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>43</v>
@@ -2512,11 +2671,11 @@
       </c>
       <c r="C21" s="13">
         <f>Update!B21</f>
-        <v>1510</v>
-      </c>
-      <c r="D21" s="13">
+        <v>1568</v>
+      </c>
+      <c r="D21" s="13" t="str">
         <f>Update!C21</f>
-        <v>0</v>
+        <v>↑ 55 (3.63%)</v>
       </c>
       <c r="E21" s="12">
         <f>Update!D21</f>
@@ -2528,7 +2687,7 @@
       </c>
       <c r="G21" s="11">
         <f>Update!F21</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H21" s="14">
         <f>Update!G21</f>
@@ -2544,35 +2703,35 @@
     <row r="22" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
         <f>Update!A22</f>
-        <v>Canada</v>
+        <v>Malaysia</v>
       </c>
       <c r="B22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>क्यानडा</v>
+        <v>मलेसिया</v>
       </c>
       <c r="C22" s="13">
         <f>Update!B22</f>
-        <v>1470</v>
-      </c>
-      <c r="D22" s="13">
+        <v>1518</v>
+      </c>
+      <c r="D22" s="13" t="str">
         <f>Update!C22</f>
-        <v>0</v>
+        <v>↑ 212 (16.23%)</v>
       </c>
       <c r="E22" s="12">
         <f>Update!D22</f>
-        <v>21</v>
-      </c>
-      <c r="F22" s="12">
+        <v>14</v>
+      </c>
+      <c r="F22" s="12" t="str">
         <f>Update!E22</f>
-        <v>0</v>
+        <v>↑ 4 (40%)</v>
       </c>
       <c r="G22" s="11">
         <f>Update!F22</f>
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="H22" s="14">
         <f>Update!G22</f>
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>187</v>
@@ -2584,23 +2743,20 @@
     <row r="23" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="str">
         <f>Update!A23</f>
-        <v>Malaysia</v>
+        <v>Canada</v>
       </c>
       <c r="B23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>मलेसिया</v>
+        <v>क्यानडा</v>
       </c>
       <c r="C23" s="13">
         <f>Update!B23</f>
-        <v>1306</v>
-      </c>
-      <c r="D23" s="13">
-        <f>Update!C23</f>
-        <v>0</v>
-      </c>
+        <v>1470</v>
+      </c>
+      <c r="D23" s="13"/>
       <c r="E23" s="12">
         <f>Update!D23</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F23" s="12">
         <f>Update!E23</f>
@@ -2608,11 +2764,11 @@
       </c>
       <c r="G23" s="11">
         <f>Update!F23</f>
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="H23" s="14">
         <f>Update!G23</f>
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>144</v>
@@ -2634,10 +2790,7 @@
         <f>Update!B24</f>
         <v>1256</v>
       </c>
-      <c r="D24" s="13">
-        <f>Update!C24</f>
-        <v>0</v>
-      </c>
+      <c r="D24" s="13"/>
       <c r="E24" s="12">
         <f>Update!D24</f>
         <v>30</v>
@@ -2664,19 +2817,19 @@
     <row r="25" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="str">
         <f>Update!A25</f>
-        <v>Czech Republic</v>
+        <v>Israel</v>
       </c>
       <c r="B25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>चेक रिपब्लिक</v>
+        <v>ईसराईल</v>
       </c>
       <c r="C25" s="13">
         <f>Update!B25</f>
-        <v>1120</v>
-      </c>
-      <c r="D25" s="13">
+        <v>1238</v>
+      </c>
+      <c r="D25" s="13" t="str">
         <f>Update!C25</f>
-        <v>0</v>
+        <v>↑ 167 (15.59%)</v>
       </c>
       <c r="E25" s="12">
         <f>Update!D25</f>
@@ -2688,11 +2841,11 @@
       </c>
       <c r="G25" s="11">
         <f>Update!F25</f>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="H25" s="14">
         <f>Update!G25</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>52</v>
@@ -2704,23 +2857,23 @@
     <row r="26" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="str">
         <f>Update!A26</f>
-        <v>Japan</v>
+        <v>Czech Republic</v>
       </c>
       <c r="B26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>जापान</v>
+        <v>चेक रिपब्लिक</v>
       </c>
       <c r="C26" s="13">
         <f>Update!B26</f>
-        <v>1101</v>
-      </c>
-      <c r="D26" s="13">
+        <v>1165</v>
+      </c>
+      <c r="D26" s="13" t="str">
         <f>Update!C26</f>
-        <v>0</v>
+        <v>↑ 45 (4.01%)</v>
       </c>
       <c r="E26" s="12">
         <f>Update!D26</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F26" s="12">
         <f>Update!E26</f>
@@ -2728,11 +2881,11 @@
       </c>
       <c r="G26" s="11">
         <f>Update!F26</f>
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="H26" s="14">
         <f>Update!G26</f>
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>115</v>
@@ -2744,23 +2897,20 @@
     <row r="27" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="str">
         <f>Update!A27</f>
-        <v>Israel</v>
+        <v>Japan</v>
       </c>
       <c r="B27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ईसराईल</v>
+        <v>जापान</v>
       </c>
       <c r="C27" s="13">
         <f>Update!B27</f>
-        <v>1071</v>
-      </c>
-      <c r="D27" s="13">
-        <f>Update!C27</f>
-        <v>0</v>
-      </c>
+        <v>1102</v>
+      </c>
+      <c r="D27" s="13"/>
       <c r="E27" s="12">
         <f>Update!D27</f>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F27" s="12">
         <f>Update!E27</f>
@@ -2768,11 +2918,11 @@
       </c>
       <c r="G27" s="11">
         <f>Update!F27</f>
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="H27" s="14">
         <f>Update!G27</f>
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>96</v>
@@ -2794,10 +2944,7 @@
         <f>Update!B28</f>
         <v>906</v>
       </c>
-      <c r="D28" s="13">
-        <f>Update!C28</f>
-        <v>0</v>
-      </c>
+      <c r="D28" s="13"/>
       <c r="E28" s="12">
         <f>Update!D28</f>
         <v>4</v>
@@ -2832,19 +2979,19 @@
       </c>
       <c r="C29" s="13">
         <f>Update!B29</f>
-        <v>799</v>
-      </c>
-      <c r="D29" s="13">
+        <v>804</v>
+      </c>
+      <c r="D29" s="13" t="str">
         <f>Update!C29</f>
-        <v>0</v>
+        <v>↑ 28 (3.60%)</v>
       </c>
       <c r="E29" s="12">
         <f>Update!D29</f>
-        <v>5</v>
-      </c>
-      <c r="F29" s="12">
+        <v>6</v>
+      </c>
+      <c r="F29" s="12" t="str">
         <f>Update!E29</f>
-        <v>0</v>
+        <v>↑ 1 (20%)</v>
       </c>
       <c r="G29" s="11">
         <f>Update!F29</f>
@@ -2874,9 +3021,9 @@
         <f>Update!B30</f>
         <v>798</v>
       </c>
-      <c r="D30" s="13">
-        <f>Update!C30</f>
-        <v>0</v>
+      <c r="D30" s="13" t="str">
+        <f>Update!C3</f>
+        <v>↑ 39 (0.04%)</v>
       </c>
       <c r="E30" s="12">
         <f>Update!D30</f>
@@ -2914,10 +3061,7 @@
         <f>Update!B31</f>
         <v>789</v>
       </c>
-      <c r="D31" s="13">
-        <f>Update!C31</f>
-        <v>0</v>
-      </c>
+      <c r="D31" s="13"/>
       <c r="E31" s="12">
         <f>Update!D31</f>
         <v>14</v>
@@ -2944,23 +3088,23 @@
     <row r="32" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="str">
         <f>Update!A32</f>
-        <v>Diamond Princess</v>
+        <v>Thailand</v>
       </c>
       <c r="B32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>डायमन्ड प्रिन्सेस</v>
+        <v>थाईल्यन्ड</v>
       </c>
       <c r="C32" s="13">
         <f>Update!B32</f>
-        <v>712</v>
-      </c>
-      <c r="D32" s="13">
+        <v>721</v>
+      </c>
+      <c r="D32" s="13" t="str">
         <f>Update!C32</f>
-        <v>0</v>
+        <v>↑ 122 (20.36%)</v>
       </c>
       <c r="E32" s="12">
         <f>Update!D32</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F32" s="12">
         <f>Update!E32</f>
@@ -2968,11 +3112,11 @@
       </c>
       <c r="G32" s="11">
         <f>Update!F32</f>
-        <v>567</v>
+        <v>52</v>
       </c>
       <c r="H32" s="14">
         <f>Update!G32</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>174</v>
@@ -2984,23 +3128,20 @@
     <row r="33" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="str">
         <f>Update!A33</f>
-        <v>Poland</v>
+        <v>Diamond Princess</v>
       </c>
       <c r="B33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>पोल्यान्ड</v>
+        <v>डायमन्ड प्रिन्सेस</v>
       </c>
       <c r="C33" s="13">
         <f>Update!B33</f>
-        <v>634</v>
-      </c>
-      <c r="D33" s="13">
-        <f>Update!C33</f>
-        <v>0</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="D33" s="13"/>
       <c r="E33" s="12">
         <f>Update!D33</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" s="12">
         <f>Update!E33</f>
@@ -3008,11 +3149,11 @@
       </c>
       <c r="G33" s="11">
         <f>Update!F33</f>
-        <v>13</v>
+        <v>567</v>
       </c>
       <c r="H33" s="14">
         <f>Update!G33</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>202</v>
@@ -3024,19 +3165,19 @@
     <row r="34" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="str">
         <f>Update!A34</f>
-        <v>Chile</v>
+        <v>Finland</v>
       </c>
       <c r="B34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>चिलि</v>
+        <v>फिनल्यान्ड</v>
       </c>
       <c r="C34" s="13">
         <f>Update!B34</f>
-        <v>632</v>
-      </c>
-      <c r="D34" s="13">
+        <v>686</v>
+      </c>
+      <c r="D34" s="13" t="str">
         <f>Update!C34</f>
-        <v>0</v>
+        <v>↑ 60 (9.58%)</v>
       </c>
       <c r="E34" s="12">
         <f>Update!D34</f>
@@ -3048,7 +3189,7 @@
       </c>
       <c r="G34" s="11">
         <f>Update!F34</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" s="14">
         <f>Update!G34</f>
@@ -3064,23 +3205,23 @@
     <row r="35" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="str">
         <f>Update!A35</f>
-        <v>Finland</v>
+        <v>Poland</v>
       </c>
       <c r="B35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>फिनल्यान्ड</v>
+        <v>पोल्यान्ड</v>
       </c>
       <c r="C35" s="13">
         <f>Update!B35</f>
-        <v>626</v>
-      </c>
-      <c r="D35" s="13">
+        <v>649</v>
+      </c>
+      <c r="D35" s="13" t="str">
         <f>Update!C35</f>
-        <v>0</v>
+        <v>↑ 15 (2.36%)</v>
       </c>
       <c r="E35" s="12">
         <f>Update!D35</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F35" s="12">
         <f>Update!E35</f>
@@ -3088,11 +3229,11 @@
       </c>
       <c r="G35" s="11">
         <f>Update!F35</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H35" s="14">
         <f>Update!G35</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>61</v>
@@ -3104,23 +3245,20 @@
     <row r="36" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="str">
         <f>Update!A36</f>
-        <v>Greece</v>
+        <v>Chile</v>
       </c>
       <c r="B36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ग्रिस</v>
+        <v>चिलि</v>
       </c>
       <c r="C36" s="13">
         <f>Update!B36</f>
-        <v>624</v>
-      </c>
-      <c r="D36" s="13">
-        <f>Update!C36</f>
-        <v>0</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="D36" s="13"/>
       <c r="E36" s="12">
         <f>Update!D36</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F36" s="12">
         <f>Update!E36</f>
@@ -3128,11 +3266,11 @@
       </c>
       <c r="G36" s="11">
         <f>Update!F36</f>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H36" s="14">
         <f>Update!G36</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>90</v>
@@ -3144,35 +3282,32 @@
     <row r="37" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="str">
         <f>Update!A37</f>
-        <v>Thailand</v>
+        <v>Greece</v>
       </c>
       <c r="B37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>थाईल्यन्ड</v>
+        <v>ग्रिस</v>
       </c>
       <c r="C37" s="13">
         <f>Update!B37</f>
-        <v>599</v>
-      </c>
-      <c r="D37" s="13">
-        <f>Update!C37</f>
-        <v>0</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="D37" s="13"/>
       <c r="E37" s="12">
         <f>Update!D37</f>
-        <v>1</v>
-      </c>
-      <c r="F37" s="12">
+        <v>16</v>
+      </c>
+      <c r="F37" s="12" t="str">
         <f>Update!E37</f>
-        <v>0</v>
+        <v>↑ 1 (6.66%)</v>
       </c>
       <c r="G37" s="11">
         <f>Update!F37</f>
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H37" s="14">
         <f>Update!G37</f>
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>176</v>
@@ -3184,35 +3319,35 @@
     <row r="38" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
         <f>Update!A38</f>
-        <v>Iceland</v>
+        <v>Indonesia</v>
       </c>
       <c r="B38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>अाईसल्यान्ड</v>
+        <v>ईन्डोनेशिया</v>
       </c>
       <c r="C38" s="13">
         <f>Update!B38</f>
-        <v>568</v>
-      </c>
-      <c r="D38" s="13">
+        <v>579</v>
+      </c>
+      <c r="D38" s="13" t="str">
         <f>Update!C38</f>
-        <v>0</v>
+        <v>↑ 65 (12.64%)</v>
       </c>
       <c r="E38" s="12">
         <f>Update!D38</f>
-        <v>1</v>
-      </c>
-      <c r="F38" s="12">
+        <v>49</v>
+      </c>
+      <c r="F38" s="12" t="str">
         <f>Update!E38</f>
-        <v>0</v>
+        <v>↑ 1 (2.08%)</v>
       </c>
       <c r="G38" s="11">
         <f>Update!F38</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H38" s="14">
         <f>Update!G38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>103</v>
@@ -3224,23 +3359,20 @@
     <row r="39" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
         <f>Update!A39</f>
-        <v>Indonesia</v>
+        <v>Iceland</v>
       </c>
       <c r="B39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ईन्डोनेशिया</v>
+        <v>अाईसल्यान्ड</v>
       </c>
       <c r="C39" s="13">
         <f>Update!B39</f>
-        <v>514</v>
-      </c>
-      <c r="D39" s="13">
-        <f>Update!C39</f>
-        <v>0</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="D39" s="13"/>
       <c r="E39" s="12">
         <f>Update!D39</f>
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F39" s="12">
         <f>Update!E39</f>
@@ -3248,11 +3380,11 @@
       </c>
       <c r="G39" s="11">
         <f>Update!F39</f>
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H39" s="14">
         <f>Update!G39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>87</v>
@@ -3274,10 +3406,7 @@
         <f>Update!B40</f>
         <v>511</v>
       </c>
-      <c r="D40" s="13">
-        <f>Update!C40</f>
-        <v>0</v>
-      </c>
+      <c r="D40" s="13"/>
       <c r="E40" s="12">
         <f>Update!D40</f>
         <v>0</v>
@@ -3314,10 +3443,7 @@
         <f>Update!B41</f>
         <v>494</v>
       </c>
-      <c r="D41" s="13">
-        <f>Update!C41</f>
-        <v>0</v>
-      </c>
+      <c r="D41" s="13"/>
       <c r="E41" s="12">
         <f>Update!D41</f>
         <v>0</v>
@@ -3344,35 +3470,35 @@
     <row r="42" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="str">
         <f>Update!A42</f>
-        <v>Singapore</v>
+        <v>Philippines</v>
       </c>
       <c r="B42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>सिंगापुर</v>
+        <v>फिलिपिन्स</v>
       </c>
       <c r="C42" s="13">
         <f>Update!B42</f>
-        <v>455</v>
-      </c>
-      <c r="D42" s="13">
+        <v>462</v>
+      </c>
+      <c r="D42" s="13" t="str">
         <f>Update!C42</f>
-        <v>0</v>
+        <v>↑ 82 (21.57%)</v>
       </c>
       <c r="E42" s="12">
         <f>Update!D42</f>
-        <v>2</v>
-      </c>
-      <c r="F42" s="12">
+        <v>33</v>
+      </c>
+      <c r="F42" s="12" t="str">
         <f>Update!E42</f>
-        <v>0</v>
+        <v>↑ 8 (32%)</v>
       </c>
       <c r="G42" s="11">
         <f>Update!F42</f>
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="H42" s="14">
         <f>Update!G42</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>114</v>
@@ -3384,23 +3510,20 @@
     <row r="43" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="str">
         <f>Update!A43</f>
-        <v>Romania</v>
+        <v>Singapore</v>
       </c>
       <c r="B43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>रोमानिया</v>
+        <v>सिंगापुर</v>
       </c>
       <c r="C43" s="13">
         <f>Update!B43</f>
-        <v>433</v>
-      </c>
-      <c r="D43" s="13">
-        <f>Update!C43</f>
-        <v>0</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="D43" s="13"/>
       <c r="E43" s="12">
         <f>Update!D43</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="12">
         <f>Update!E43</f>
@@ -3408,11 +3531,11 @@
       </c>
       <c r="G43" s="11">
         <f>Update!F43</f>
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="H43" s="14">
         <f>Update!G43</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>54</v>
@@ -3424,23 +3547,23 @@
     <row r="44" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="str">
         <f>Update!A44</f>
-        <v>Slovenia</v>
+        <v>Russia</v>
       </c>
       <c r="B44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>स्लोभेनिया</v>
+        <v>रसिया</v>
       </c>
       <c r="C44" s="13">
         <f>Update!B44</f>
-        <v>414</v>
-      </c>
-      <c r="D44" s="13">
+        <v>438</v>
+      </c>
+      <c r="D44" s="13" t="str">
         <f>Update!C44</f>
-        <v>0</v>
+        <v>↑ 71 (19.34%)</v>
       </c>
       <c r="E44" s="12">
         <f>Update!D44</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="12">
         <f>Update!E44</f>
@@ -3448,11 +3571,11 @@
       </c>
       <c r="G44" s="11">
         <f>Update!F44</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H44" s="14">
         <f>Update!G44</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>48</v>
@@ -3464,35 +3587,32 @@
     <row r="45" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="str">
         <f>Update!A45</f>
-        <v>India</v>
+        <v>Romania</v>
       </c>
       <c r="B45" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>भारत</v>
+        <v>रोमानिया</v>
       </c>
       <c r="C45" s="13">
         <f>Update!B45</f>
-        <v>396</v>
-      </c>
-      <c r="D45" s="13">
-        <f>Update!C45</f>
-        <v>0</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="D45" s="13"/>
       <c r="E45" s="12">
         <f>Update!D45</f>
-        <v>7</v>
-      </c>
-      <c r="F45" s="12">
+        <v>4</v>
+      </c>
+      <c r="F45" s="12" t="str">
         <f>Update!E45</f>
-        <v>0</v>
+        <v>↑ 1 (33.33%)</v>
       </c>
       <c r="G45" s="11">
         <f>Update!F45</f>
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H45" s="14">
         <f>Update!G45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>60</v>
@@ -3504,35 +3624,35 @@
     <row r="46" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="str">
         <f>Update!A46</f>
-        <v>Philippines</v>
+        <v>India</v>
       </c>
       <c r="B46" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>फिलिपिन्स</v>
+        <v>भारत</v>
       </c>
       <c r="C46" s="13">
         <f>Update!B46</f>
-        <v>380</v>
-      </c>
-      <c r="D46" s="13">
+        <v>425</v>
+      </c>
+      <c r="D46" s="13" t="str">
         <f>Update!C46</f>
-        <v>0</v>
+        <v>↑ 29 (7.32%)</v>
       </c>
       <c r="E46" s="12">
         <f>Update!D46</f>
-        <v>25</v>
-      </c>
-      <c r="F46" s="12">
+        <v>8</v>
+      </c>
+      <c r="F46" s="12" t="str">
         <f>Update!E46</f>
-        <v>0</v>
+        <v>↑ 1 (14.28%)</v>
       </c>
       <c r="G46" s="11">
         <f>Update!F46</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H46" s="14">
         <f>Update!G46</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>197</v>
@@ -3544,35 +3664,32 @@
     <row r="47" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="str">
         <f>Update!A47</f>
-        <v>Russia</v>
+        <v>Slovenia</v>
       </c>
       <c r="B47" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>रसिया</v>
+        <v>स्लोभेनिया</v>
       </c>
       <c r="C47" s="13">
         <f>Update!B47</f>
-        <v>367</v>
-      </c>
-      <c r="D47" s="13">
-        <f>Update!C47</f>
-        <v>0</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="D47" s="13"/>
       <c r="E47" s="12">
         <f>Update!D47</f>
-        <v>1</v>
-      </c>
-      <c r="F47" s="12">
+        <v>3</v>
+      </c>
+      <c r="F47" s="12" t="str">
         <f>Update!E47</f>
-        <v>0</v>
+        <v>↑ 1 (50%)</v>
       </c>
       <c r="G47" s="11">
         <f>Update!F47</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H47" s="14">
         <f>Update!G47</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>106</v>
@@ -3594,10 +3711,7 @@
         <f>Update!B48</f>
         <v>363</v>
       </c>
-      <c r="D48" s="13">
-        <f>Update!C48</f>
-        <v>0</v>
-      </c>
+      <c r="D48" s="13"/>
       <c r="E48" s="12">
         <f>Update!D48</f>
         <v>5</v>
@@ -3624,23 +3738,23 @@
     <row r="49" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="str">
         <f>Update!A49</f>
-        <v>Bahrain</v>
+        <v>Hong Kong</v>
       </c>
       <c r="B49" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>बहराईन</v>
+        <v>हङकङ</v>
       </c>
       <c r="C49" s="13">
         <f>Update!B49</f>
-        <v>334</v>
-      </c>
-      <c r="D49" s="13">
+        <v>357</v>
+      </c>
+      <c r="D49" s="13" t="str">
         <f>Update!C49</f>
-        <v>0</v>
+        <v>↑ 38 (11.91%)</v>
       </c>
       <c r="E49" s="12">
         <f>Update!D49</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="12">
         <f>Update!E49</f>
@@ -3648,11 +3762,11 @@
       </c>
       <c r="G49" s="11">
         <f>Update!F49</f>
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="H49" s="14">
         <f>Update!G49</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>67</v>
@@ -3664,23 +3778,23 @@
     <row r="50" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="str">
         <f>Update!A50</f>
-        <v>Egypt</v>
+        <v>Estonia</v>
       </c>
       <c r="B50" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ईजिप्ट</v>
+        <v>ईस्टोनिया</v>
       </c>
       <c r="C50" s="13">
         <f>Update!B50</f>
-        <v>327</v>
-      </c>
-      <c r="D50" s="13">
+        <v>352</v>
+      </c>
+      <c r="D50" s="13" t="str">
         <f>Update!C50</f>
-        <v>0</v>
+        <v>↑ 26 (7.97%)</v>
       </c>
       <c r="E50" s="12">
         <f>Update!D50</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F50" s="12">
         <f>Update!E50</f>
@@ -3688,7 +3802,7 @@
       </c>
       <c r="G50" s="11">
         <f>Update!F50</f>
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H50" s="14">
         <f>Update!G50</f>
@@ -3704,23 +3818,23 @@
     <row r="51" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="str">
         <f>Update!A51</f>
-        <v>Estonia</v>
+        <v>Bahrain</v>
       </c>
       <c r="B51" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ईस्टोनिया</v>
+        <v>बहराईन</v>
       </c>
       <c r="C51" s="13">
         <f>Update!B51</f>
-        <v>326</v>
-      </c>
-      <c r="D51" s="13">
+        <v>337</v>
+      </c>
+      <c r="D51" s="13" t="str">
         <f>Update!C51</f>
-        <v>0</v>
+        <v>↑ 3 (0.89%)</v>
       </c>
       <c r="E51" s="12">
         <f>Update!D51</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" s="12">
         <f>Update!E51</f>
@@ -3728,11 +3842,11 @@
       </c>
       <c r="G51" s="11">
         <f>Update!F51</f>
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="H51" s="14">
         <f>Update!G51</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>178</v>
@@ -3744,23 +3858,20 @@
     <row r="52" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="str">
         <f>Update!A52</f>
-        <v>Hong Kong</v>
+        <v>Egypt</v>
       </c>
       <c r="B52" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>हङकङ</v>
+        <v>ईजिप्ट</v>
       </c>
       <c r="C52" s="13">
         <f>Update!B52</f>
-        <v>318</v>
-      </c>
-      <c r="D52" s="13">
-        <f>Update!C52</f>
-        <v>0</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="D52" s="13"/>
       <c r="E52" s="12">
         <f>Update!D52</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F52" s="12">
         <f>Update!E52</f>
@@ -3768,11 +3879,11 @@
       </c>
       <c r="G52" s="11">
         <f>Update!F52</f>
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H52" s="14">
         <f>Update!G52</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>167</v>
@@ -3794,9 +3905,9 @@
         <f>Update!B53</f>
         <v>316</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="13" t="str">
         <f>Update!C53</f>
-        <v>0</v>
+        <v>↑ 65 (25.89%)</v>
       </c>
       <c r="E53" s="12">
         <f>Update!D53</f>
@@ -3834,10 +3945,7 @@
         <f>Update!B54</f>
         <v>313</v>
       </c>
-      <c r="D54" s="13">
-        <f>Update!C54</f>
-        <v>0</v>
-      </c>
+      <c r="D54" s="13"/>
       <c r="E54" s="12">
         <f>Update!D54</f>
         <v>3</v>
@@ -3864,23 +3972,23 @@
     <row r="55" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="str">
         <f>Update!A55</f>
-        <v>South Africa</v>
+        <v>Croatia</v>
       </c>
       <c r="B55" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>दक्षिण अप्रिका</v>
+        <v>क्रोएसिया</v>
       </c>
       <c r="C55" s="13">
         <f>Update!B55</f>
-        <v>274</v>
-      </c>
-      <c r="D55" s="13">
+        <v>306</v>
+      </c>
+      <c r="D55" s="13" t="str">
         <f>Update!C55</f>
-        <v>0</v>
+        <v>↑ 52 (20.47%)</v>
       </c>
       <c r="E55" s="12">
         <f>Update!D55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="12">
         <f>Update!E55</f>
@@ -3888,7 +3996,7 @@
       </c>
       <c r="G55" s="11">
         <f>Update!F55</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H55" s="14">
         <f>Update!G55</f>
@@ -3904,23 +4012,20 @@
     <row r="56" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="str">
         <f>Update!A56</f>
-        <v>Argentina</v>
+        <v>South Africa</v>
       </c>
       <c r="B56" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>अर्जेन्टिना</v>
+        <v>दक्षिण अप्रिका</v>
       </c>
       <c r="C56" s="13">
         <f>Update!B56</f>
-        <v>266</v>
-      </c>
-      <c r="D56" s="13">
-        <f>Update!C56</f>
-        <v>0</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D56" s="13"/>
       <c r="E56" s="12">
         <f>Update!D56</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F56" s="12">
         <f>Update!E56</f>
@@ -3928,7 +4033,7 @@
       </c>
       <c r="G56" s="11">
         <f>Update!F56</f>
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H56" s="14">
         <f>Update!G56</f>
@@ -3944,23 +4049,20 @@
     <row r="57" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="str">
         <f>Update!A57</f>
-        <v>Croatia</v>
+        <v>Argentina</v>
       </c>
       <c r="B57" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>क्रोएसिया</v>
+        <v>अर्जेन्टिना</v>
       </c>
       <c r="C57" s="13">
         <f>Update!B57</f>
-        <v>254</v>
-      </c>
-      <c r="D57" s="13">
-        <f>Update!C57</f>
-        <v>0</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D57" s="13"/>
       <c r="E57" s="12">
         <f>Update!D57</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" s="12">
         <f>Update!E57</f>
@@ -3968,7 +4070,7 @@
       </c>
       <c r="G57" s="11">
         <f>Update!F57</f>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H57" s="14">
         <f>Update!G57</f>
@@ -3994,10 +4096,7 @@
         <f>Update!B58</f>
         <v>248</v>
       </c>
-      <c r="D58" s="13">
-        <f>Update!C58</f>
-        <v>0</v>
-      </c>
+      <c r="D58" s="13"/>
       <c r="E58" s="12">
         <f>Update!D58</f>
         <v>4</v>
@@ -4024,23 +4123,23 @@
     <row r="59" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="str">
         <f>Update!A59</f>
-        <v>Iraq</v>
+        <v>Colombia</v>
       </c>
       <c r="B59" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ईराक</v>
+        <v>कोलम्बिया</v>
       </c>
       <c r="C59" s="13">
         <f>Update!B59</f>
-        <v>233</v>
-      </c>
-      <c r="D59" s="13">
+        <v>235</v>
+      </c>
+      <c r="D59" s="13" t="str">
         <f>Update!C59</f>
-        <v>0</v>
+        <v>↑ 4 (1.73%)</v>
       </c>
       <c r="E59" s="12">
         <f>Update!D59</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F59" s="12">
         <f>Update!E59</f>
@@ -4048,7 +4147,7 @@
       </c>
       <c r="G59" s="11">
         <f>Update!F59</f>
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H59" s="14">
         <f>Update!G59</f>
@@ -4064,23 +4163,23 @@
     <row r="60" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="str">
         <f>Update!A60</f>
-        <v>Colombia</v>
+        <v>Iraq</v>
       </c>
       <c r="B60" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>कोलम्बिया</v>
+        <v>ईराक</v>
       </c>
       <c r="C60" s="13">
         <f>Update!B60</f>
-        <v>231</v>
-      </c>
-      <c r="D60" s="13">
-        <f>Update!C60</f>
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="D60" s="13" t="str">
+        <f>Update!C6</f>
+        <v>↑ 1,141 (3.96%)</v>
       </c>
       <c r="E60" s="12">
         <f>Update!D60</f>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F60" s="12">
         <f>Update!E60</f>
@@ -4088,7 +4187,7 @@
       </c>
       <c r="G60" s="11">
         <f>Update!F60</f>
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="H60" s="14">
         <f>Update!G60</f>
@@ -4114,10 +4213,7 @@
         <f>Update!B61</f>
         <v>222</v>
       </c>
-      <c r="D61" s="13">
-        <f>Update!C61</f>
-        <v>0</v>
-      </c>
+      <c r="D61" s="13"/>
       <c r="E61" s="12">
         <f>Update!D61</f>
         <v>2</v>
@@ -4154,10 +4250,7 @@
         <f>Update!B62</f>
         <v>202</v>
       </c>
-      <c r="D62" s="13">
-        <f>Update!C62</f>
-        <v>0</v>
-      </c>
+      <c r="D62" s="13"/>
       <c r="E62" s="12">
         <f>Update!D62</f>
         <v>3</v>
@@ -4194,10 +4287,7 @@
         <f>Update!B63</f>
         <v>201</v>
       </c>
-      <c r="D63" s="13">
-        <f>Update!C63</f>
-        <v>0</v>
-      </c>
+      <c r="D63" s="13"/>
       <c r="E63" s="12">
         <f>Update!D63</f>
         <v>17</v>
@@ -4224,23 +4314,23 @@
     <row r="64" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="str">
         <f>Update!A64</f>
-        <v>Armenia</v>
+        <v>Taiwan</v>
       </c>
       <c r="B64" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>अर्मेनिया</v>
+        <v>ताईवान</v>
       </c>
       <c r="C64" s="13">
         <f>Update!B64</f>
-        <v>194</v>
-      </c>
-      <c r="D64" s="13">
+        <v>195</v>
+      </c>
+      <c r="D64" s="13" t="str">
         <f>Update!C64</f>
-        <v>0</v>
+        <v>↑ 26 (15.38%)</v>
       </c>
       <c r="E64" s="12">
         <f>Update!D64</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="12">
         <f>Update!E64</f>
@@ -4248,7 +4338,7 @@
       </c>
       <c r="G64" s="11">
         <f>Update!F64</f>
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H64" s="14">
         <f>Update!G64</f>
@@ -4264,20 +4354,17 @@
     <row r="65" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="str">
         <f>Update!A65</f>
-        <v>Kuwait</v>
+        <v>Armenia</v>
       </c>
       <c r="B65" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>कुवेत</v>
+        <v>अर्मेनिया</v>
       </c>
       <c r="C65" s="13">
         <f>Update!B65</f>
-        <v>188</v>
-      </c>
-      <c r="D65" s="13">
-        <f>Update!C65</f>
-        <v>0</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D65" s="13"/>
       <c r="E65" s="12">
         <f>Update!D65</f>
         <v>0</v>
@@ -4288,11 +4375,11 @@
       </c>
       <c r="G65" s="11">
         <f>Update!F65</f>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H65" s="14">
         <f>Update!G65</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>162</v>
@@ -4312,11 +4399,11 @@
       </c>
       <c r="C66" s="13">
         <f>Update!B66</f>
-        <v>187</v>
-      </c>
-      <c r="D66" s="13">
+        <v>190</v>
+      </c>
+      <c r="D66" s="13" t="str">
         <f>Update!C66</f>
-        <v>0</v>
+        <v>↑ 3 (1.60%)</v>
       </c>
       <c r="E66" s="12">
         <f>Update!D66</f>
@@ -4332,7 +4419,7 @@
       </c>
       <c r="H66" s="14">
         <f>Update!G66</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>68</v>
@@ -4344,23 +4431,23 @@
     <row r="67" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="str">
         <f>Update!A67</f>
-        <v>Slovakia</v>
+        <v>Kuwait</v>
       </c>
       <c r="B67" s="9" t="str">
-        <f t="shared" ref="B67:B130" si="1">INDEX($J$2:$J$175,MATCH(A67,$I$2:$I$175,0))</f>
-        <v>स्लोभाकिया</v>
+        <f t="shared" ref="B67:B130" si="1">INDEX($J$2:$J$176,MATCH(A67,$I$2:$I$176,0))</f>
+        <v>कुवेत</v>
       </c>
       <c r="C67" s="13">
         <f>Update!B67</f>
-        <v>185</v>
-      </c>
-      <c r="D67" s="13">
+        <v>189</v>
+      </c>
+      <c r="D67" s="13" t="str">
         <f>Update!C67</f>
-        <v>0</v>
+        <v>↑ 1 (0.53%)</v>
       </c>
       <c r="E67" s="12">
         <f>Update!D67</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="12">
         <f>Update!E67</f>
@@ -4368,11 +4455,11 @@
       </c>
       <c r="G67" s="11">
         <f>Update!F67</f>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H67" s="14">
         <f>Update!G67</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>183</v>
@@ -4384,23 +4471,20 @@
     <row r="68" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="str">
         <f>Update!A68</f>
-        <v>San Marino</v>
+        <v>Slovakia</v>
       </c>
       <c r="B68" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>सान मारिनो</v>
+        <v>स्लोभाकिया</v>
       </c>
       <c r="C68" s="13">
         <f>Update!B68</f>
-        <v>175</v>
-      </c>
-      <c r="D68" s="13">
-        <f>Update!C68</f>
-        <v>0</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D68" s="13"/>
       <c r="E68" s="12">
         <f>Update!D68</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F68" s="12">
         <f>Update!E68</f>
@@ -4408,11 +4492,11 @@
       </c>
       <c r="G68" s="11">
         <f>Update!F68</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H68" s="14">
         <f>Update!G68</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>149</v>
@@ -4424,23 +4508,23 @@
     <row r="69" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="str">
         <f>Update!A69</f>
-        <v>Taiwan</v>
+        <v>Latvia</v>
       </c>
       <c r="B69" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>ताईवान</v>
+        <v>लात्भिया</v>
       </c>
       <c r="C69" s="13">
         <f>Update!B69</f>
-        <v>169</v>
-      </c>
-      <c r="D69" s="13">
+        <v>180</v>
+      </c>
+      <c r="D69" s="13" t="str">
         <f>Update!C69</f>
-        <v>0</v>
+        <v>↑ 41 (29.49%)</v>
       </c>
       <c r="E69" s="12">
         <f>Update!D69</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69" s="12">
         <f>Update!E69</f>
@@ -4448,7 +4532,7 @@
       </c>
       <c r="G69" s="11">
         <f>Update!F69</f>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H69" s="14">
         <f>Update!G69</f>
@@ -4464,23 +4548,23 @@
     <row r="70" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="str">
         <f>Update!A70</f>
-        <v>Uruguay</v>
+        <v>San Marino</v>
       </c>
       <c r="B70" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>उरुग्वे</v>
+        <v>सान मारिनो</v>
       </c>
       <c r="C70" s="13">
         <f>Update!B70</f>
-        <v>158</v>
-      </c>
-      <c r="D70" s="13">
-        <f>Update!C70</f>
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="D70" s="13" t="str">
+        <f>Update!C7</f>
+        <v>↑ 1,286 (5.17%)</v>
       </c>
       <c r="E70" s="12">
         <f>Update!D70</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F70" s="12">
         <f>Update!E70</f>
@@ -4488,11 +4572,11 @@
       </c>
       <c r="G70" s="11">
         <f>Update!F70</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H70" s="14">
         <f>Update!G70</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>184</v>
@@ -4504,35 +4588,35 @@
     <row r="71" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="str">
         <f>Update!A71</f>
-        <v>United Arab Emirates</v>
+        <v>Hungary</v>
       </c>
       <c r="B71" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>युएई</v>
+        <v>हङगरि</v>
       </c>
       <c r="C71" s="13">
         <f>Update!B71</f>
-        <v>153</v>
-      </c>
-      <c r="D71" s="13">
+        <v>167</v>
+      </c>
+      <c r="D71" s="13" t="str">
         <f>Update!C71</f>
-        <v>0</v>
+        <v>↑ 36 (27.48%)</v>
       </c>
       <c r="E71" s="12">
         <f>Update!D71</f>
-        <v>2</v>
-      </c>
-      <c r="F71" s="12">
+        <v>7</v>
+      </c>
+      <c r="F71" s="12" t="str">
         <f>Update!E71</f>
-        <v>0</v>
+        <v>↑ 1 (16.66%)</v>
       </c>
       <c r="G71" s="11">
         <f>Update!F71</f>
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H71" s="14">
         <f>Update!G71</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>148</v>
@@ -4544,23 +4628,20 @@
     <row r="72" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="str">
         <f>Update!A72</f>
-        <v>Lithuania</v>
+        <v>Uruguay</v>
       </c>
       <c r="B72" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>लिथुअानिया</v>
+        <v>उरुग्वे</v>
       </c>
       <c r="C72" s="13">
         <f>Update!B72</f>
-        <v>143</v>
-      </c>
-      <c r="D72" s="13">
-        <f>Update!C72</f>
-        <v>0</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D72" s="13"/>
       <c r="E72" s="12">
         <f>Update!D72</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="12">
         <f>Update!E72</f>
@@ -4568,11 +4649,11 @@
       </c>
       <c r="G72" s="11">
         <f>Update!F72</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" s="14">
         <f>Update!G72</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>181</v>
@@ -4584,23 +4665,23 @@
     <row r="73" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="str">
         <f>Update!A73</f>
-        <v>Latvia</v>
+        <v>Lithuania</v>
       </c>
       <c r="B73" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>लात्भिया</v>
+        <v>लिथुअानिया</v>
       </c>
       <c r="C73" s="13">
         <f>Update!B73</f>
-        <v>139</v>
-      </c>
-      <c r="D73" s="13">
+        <v>154</v>
+      </c>
+      <c r="D73" s="13" t="str">
         <f>Update!C73</f>
-        <v>0</v>
+        <v>↑ 11 (7.69%)</v>
       </c>
       <c r="E73" s="12">
         <f>Update!D73</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="12">
         <f>Update!E73</f>
@@ -4624,20 +4705,17 @@
     <row r="74" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="str">
         <f>Update!A74</f>
-        <v>Costa Rica</v>
+        <v>United Arab Emirates</v>
       </c>
       <c r="B74" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>कोस्टारिका</v>
+        <v>युएई</v>
       </c>
       <c r="C74" s="13">
         <f>Update!B74</f>
-        <v>134</v>
-      </c>
-      <c r="D74" s="13">
-        <f>Update!C74</f>
-        <v>0</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D74" s="13"/>
       <c r="E74" s="12">
         <f>Update!D74</f>
         <v>2</v>
@@ -4648,11 +4726,11 @@
       </c>
       <c r="G74" s="11">
         <f>Update!F74</f>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="H74" s="14">
         <f>Update!G74</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>82</v>
@@ -4664,23 +4742,20 @@
     <row r="75" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="str">
         <f>Update!A75</f>
-        <v>Hungary</v>
+        <v>Costa Rica</v>
       </c>
       <c r="B75" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>हङगरि</v>
+        <v>कोस्टारिका</v>
       </c>
       <c r="C75" s="13">
         <f>Update!B75</f>
-        <v>131</v>
-      </c>
-      <c r="D75" s="13">
-        <f>Update!C75</f>
-        <v>0</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D75" s="13"/>
       <c r="E75" s="12">
         <f>Update!D75</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F75" s="12">
         <f>Update!E75</f>
@@ -4688,11 +4763,11 @@
       </c>
       <c r="G75" s="11">
         <f>Update!F75</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H75" s="14">
         <f>Update!G75</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>102</v>
@@ -4712,11 +4787,11 @@
       </c>
       <c r="C76" s="13">
         <f>Update!B76</f>
-        <v>126</v>
-      </c>
-      <c r="D76" s="13">
+        <v>128</v>
+      </c>
+      <c r="D76" s="13" t="str">
         <f>Update!C76</f>
-        <v>0</v>
+        <v>↑ 2 (1.58%)</v>
       </c>
       <c r="E76" s="12">
         <f>Update!D76</f>
@@ -4752,11 +4827,11 @@
       </c>
       <c r="C77" s="13">
         <f>Update!B77</f>
-        <v>115</v>
-      </c>
-      <c r="D77" s="13">
+        <v>122</v>
+      </c>
+      <c r="D77" s="13" t="str">
         <f>Update!C77</f>
-        <v>0</v>
+        <v>↑ 7 (6.08%)</v>
       </c>
       <c r="E77" s="12">
         <f>Update!D77</f>
@@ -4784,23 +4859,23 @@
     <row r="78" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="str">
         <f>Update!A78</f>
-        <v>North Macedonia</v>
+        <v>Vietnam</v>
       </c>
       <c r="B78" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>उत्तर मासेडोनिया</v>
+        <v>विइतनाम</v>
       </c>
       <c r="C78" s="13">
         <f>Update!B78</f>
-        <v>115</v>
-      </c>
-      <c r="D78" s="13">
+        <v>121</v>
+      </c>
+      <c r="D78" s="13" t="str">
         <f>Update!C78</f>
-        <v>0</v>
+        <v>↑ 8 (7.07%)</v>
       </c>
       <c r="E78" s="12">
         <f>Update!D78</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="12">
         <f>Update!E78</f>
@@ -4808,7 +4883,7 @@
       </c>
       <c r="G78" s="11">
         <f>Update!F78</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H78" s="14">
         <f>Update!G78</f>
@@ -4824,23 +4899,20 @@
     <row r="79" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="str">
         <f>Update!A79</f>
-        <v>Vietnam</v>
+        <v>North Macedonia</v>
       </c>
       <c r="B79" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>विइतनाम</v>
+        <v>उत्तर मासेडोनिया</v>
       </c>
       <c r="C79" s="13">
         <f>Update!B79</f>
-        <v>113</v>
-      </c>
-      <c r="D79" s="13">
-        <f>Update!C79</f>
-        <v>0</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D79" s="13"/>
       <c r="E79" s="12">
         <f>Update!D79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="12">
         <f>Update!E79</f>
@@ -4848,7 +4920,7 @@
       </c>
       <c r="G79" s="11">
         <f>Update!F79</f>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H79" s="14">
         <f>Update!G79</f>
@@ -4874,10 +4946,7 @@
         <f>Update!B80</f>
         <v>113</v>
       </c>
-      <c r="D80" s="13">
-        <f>Update!C80</f>
-        <v>0</v>
-      </c>
+      <c r="D80" s="13"/>
       <c r="E80" s="12">
         <f>Update!D80</f>
         <v>1</v>
@@ -4914,10 +4983,7 @@
         <f>Update!B81</f>
         <v>112</v>
       </c>
-      <c r="D81" s="13">
-        <f>Update!C81</f>
-        <v>0</v>
-      </c>
+      <c r="D81" s="13"/>
       <c r="E81" s="12">
         <f>Update!D81</f>
         <v>0</v>
@@ -4954,10 +5020,7 @@
         <f>Update!B82</f>
         <v>102</v>
       </c>
-      <c r="D82" s="13">
-        <f>Update!C82</f>
-        <v>0</v>
-      </c>
+      <c r="D82" s="13"/>
       <c r="E82" s="12">
         <f>Update!D82</f>
         <v>0</v>
@@ -4994,10 +5057,7 @@
         <f>Update!B83</f>
         <v>95</v>
       </c>
-      <c r="D83" s="13">
-        <f>Update!C83</f>
-        <v>0</v>
-      </c>
+      <c r="D83" s="13"/>
       <c r="E83" s="12">
         <f>Update!D83</f>
         <v>1</v>
@@ -5034,10 +5094,7 @@
         <f>Update!B84</f>
         <v>94</v>
       </c>
-      <c r="D84" s="13">
-        <f>Update!C84</f>
-        <v>0</v>
-      </c>
+      <c r="D84" s="13"/>
       <c r="E84" s="12">
         <f>Update!D84</f>
         <v>1</v>
@@ -5064,19 +5121,19 @@
     <row r="85" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="str">
         <f>Update!A85</f>
-        <v>Malta</v>
+        <v>Brunei</v>
       </c>
       <c r="B85" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>माल्टा</v>
+        <v>ब्रुनेई</v>
       </c>
       <c r="C85" s="13">
         <f>Update!B85</f>
-        <v>90</v>
-      </c>
-      <c r="D85" s="13">
+        <v>91</v>
+      </c>
+      <c r="D85" s="13" t="str">
         <f>Update!C85</f>
-        <v>0</v>
+        <v>↑ 3 (3.40%)</v>
       </c>
       <c r="E85" s="12">
         <f>Update!D85</f>
@@ -5092,7 +5149,7 @@
       </c>
       <c r="H85" s="14">
         <f>Update!G85</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>155</v>
@@ -5104,23 +5161,20 @@
     <row r="86" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="str">
         <f>Update!A86</f>
-        <v>Albania</v>
+        <v>Malta</v>
       </c>
       <c r="B86" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>अल्बानिया</v>
+        <v>माल्टा</v>
       </c>
       <c r="C86" s="13">
         <f>Update!B86</f>
-        <v>89</v>
-      </c>
-      <c r="D86" s="13">
-        <f>Update!C86</f>
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D86" s="13"/>
       <c r="E86" s="12">
         <f>Update!D86</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F86" s="12">
         <f>Update!E86</f>
@@ -5132,7 +5186,7 @@
       </c>
       <c r="H86" s="14">
         <f>Update!G86</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>145</v>
@@ -5144,27 +5198,24 @@
     <row r="87" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="str">
         <f>Update!A87</f>
-        <v>Brunei</v>
+        <v>Albania</v>
       </c>
       <c r="B87" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>ब्रुनेई</v>
+        <v>अल्बानिया</v>
       </c>
       <c r="C87" s="13">
         <f>Update!B87</f>
-        <v>88</v>
-      </c>
-      <c r="D87" s="13">
-        <f>Update!C87</f>
-        <v>0</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D87" s="13"/>
       <c r="E87" s="12">
         <f>Update!D87</f>
-        <v>0</v>
-      </c>
-      <c r="F87" s="12">
+        <v>5</v>
+      </c>
+      <c r="F87" s="12" t="str">
         <f>Update!E87</f>
-        <v>0</v>
+        <v>↑ 3 (15%)</v>
       </c>
       <c r="G87" s="11">
         <f>Update!F87</f>
@@ -5172,7 +5223,7 @@
       </c>
       <c r="H87" s="14">
         <f>Update!G87</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>53</v>
@@ -5184,19 +5235,19 @@
     <row r="88" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="str">
         <f>Update!A88</f>
-        <v>Cambodia</v>
+        <v>Sri Lanka</v>
       </c>
       <c r="B88" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>कम्बोडिया</v>
+        <v>स्रि लङका</v>
       </c>
       <c r="C88" s="13">
         <f>Update!B88</f>
-        <v>84</v>
-      </c>
-      <c r="D88" s="13">
+        <v>87</v>
+      </c>
+      <c r="D88" s="13" t="str">
         <f>Update!C88</f>
-        <v>0</v>
+        <v>↑ 5 (6.09%)</v>
       </c>
       <c r="E88" s="12">
         <f>Update!D88</f>
@@ -5208,7 +5259,7 @@
       </c>
       <c r="G88" s="11">
         <f>Update!F88</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" s="14">
         <f>Update!G88</f>
@@ -5224,19 +5275,19 @@
     <row r="89" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="str">
         <f>Update!A89</f>
-        <v>Sri Lanka</v>
+        <v>Cambodia</v>
       </c>
       <c r="B89" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>स्रि लङका</v>
+        <v>कम्बोडिया</v>
       </c>
       <c r="C89" s="13">
         <f>Update!B89</f>
-        <v>82</v>
-      </c>
-      <c r="D89" s="13">
+        <v>86</v>
+      </c>
+      <c r="D89" s="13" t="str">
         <f>Update!C89</f>
-        <v>0</v>
+        <v>↑ 2 (2.38%)</v>
       </c>
       <c r="E89" s="12">
         <f>Update!D89</f>
@@ -5248,7 +5299,7 @@
       </c>
       <c r="G89" s="11">
         <f>Update!F89</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" s="14">
         <f>Update!G89</f>
@@ -5264,19 +5315,19 @@
     <row r="90" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="str">
         <f>Update!A90</f>
-        <v>Belarus</v>
+        <v>Venezuela</v>
       </c>
       <c r="B90" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>बेलारुस</v>
+        <v>भेनेजुएला</v>
       </c>
       <c r="C90" s="13">
         <f>Update!B90</f>
-        <v>76</v>
-      </c>
-      <c r="D90" s="13">
+        <v>77</v>
+      </c>
+      <c r="D90" s="13" t="str">
         <f>Update!C90</f>
-        <v>0</v>
+        <v>↑ 7 (10%)</v>
       </c>
       <c r="E90" s="12">
         <f>Update!D90</f>
@@ -5292,7 +5343,7 @@
       </c>
       <c r="H90" s="14">
         <f>Update!G90</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>125</v>
@@ -5304,23 +5355,20 @@
     <row r="91" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="str">
         <f>Update!A91</f>
-        <v>Tunisia</v>
+        <v>Belarus</v>
       </c>
       <c r="B91" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>ट्युनिसिया</v>
+        <v>बेलारुस</v>
       </c>
       <c r="C91" s="13">
         <f>Update!B91</f>
-        <v>75</v>
-      </c>
-      <c r="D91" s="13">
-        <f>Update!C91</f>
-        <v>0</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D91" s="13"/>
       <c r="E91" s="12">
         <f>Update!D91</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F91" s="12">
         <f>Update!E91</f>
@@ -5328,7 +5376,7 @@
       </c>
       <c r="G91" s="11">
         <f>Update!F91</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H91" s="14">
         <f>Update!G91</f>
@@ -5344,23 +5392,20 @@
     <row r="92" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="str">
         <f>Update!A92</f>
-        <v>Burkina Faso</v>
+        <v>Tunisia</v>
       </c>
       <c r="B92" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>बुर्किना फासो</v>
+        <v>ट्युनिसिया</v>
       </c>
       <c r="C92" s="13">
         <f>Update!B92</f>
         <v>75</v>
       </c>
-      <c r="D92" s="13">
-        <f>Update!C92</f>
-        <v>0</v>
-      </c>
+      <c r="D92" s="13"/>
       <c r="E92" s="12">
         <f>Update!D92</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" s="12">
         <f>Update!E92</f>
@@ -5368,7 +5413,7 @@
       </c>
       <c r="G92" s="11">
         <f>Update!F92</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H92" s="14">
         <f>Update!G92</f>
@@ -5384,23 +5429,20 @@
     <row r="93" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="str">
         <f>Update!A93</f>
-        <v>Ukraine</v>
+        <v>Burkina Faso</v>
       </c>
       <c r="B93" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>युक्रेन</v>
+        <v>बुर्किना फासो</v>
       </c>
       <c r="C93" s="13">
         <f>Update!B93</f>
-        <v>73</v>
-      </c>
-      <c r="D93" s="13">
-        <f>Update!C93</f>
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D93" s="13"/>
       <c r="E93" s="12">
         <f>Update!D93</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" s="12">
         <f>Update!E93</f>
@@ -5408,7 +5450,7 @@
       </c>
       <c r="G93" s="11">
         <f>Update!F93</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H93" s="14">
         <f>Update!G93</f>
@@ -5424,23 +5466,20 @@
     <row r="94" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="str">
         <f>Update!A94</f>
-        <v>Venezuela</v>
+        <v>Ukraine</v>
       </c>
       <c r="B94" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>भेनेजुएला</v>
+        <v>युक्रेन</v>
       </c>
       <c r="C94" s="13">
         <f>Update!B94</f>
-        <v>70</v>
-      </c>
-      <c r="D94" s="13">
-        <f>Update!C94</f>
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D94" s="13"/>
       <c r="E94" s="12">
         <f>Update!D94</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F94" s="12">
         <f>Update!E94</f>
@@ -5448,11 +5487,11 @@
       </c>
       <c r="G94" s="11">
         <f>Update!F94</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H94" s="14">
         <f>Update!G94</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>156</v>
@@ -5474,10 +5513,7 @@
         <f>Update!B95</f>
         <v>67</v>
       </c>
-      <c r="D95" s="13">
-        <f>Update!C95</f>
-        <v>0</v>
-      </c>
+      <c r="D95" s="13"/>
       <c r="E95" s="12">
         <f>Update!D95</f>
         <v>0</v>
@@ -5504,23 +5540,23 @@
     <row r="96" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="str">
         <f>Update!A96</f>
-        <v>Azerbaijan</v>
+        <v>Oman</v>
       </c>
       <c r="B96" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>अजरबाईजान</v>
+        <v>अोमान</v>
       </c>
       <c r="C96" s="13">
         <f>Update!B96</f>
-        <v>65</v>
-      </c>
-      <c r="D96" s="13">
+        <v>66</v>
+      </c>
+      <c r="D96" s="13" t="str">
         <f>Update!C96</f>
-        <v>0</v>
+        <v>↑ 11 (20%)</v>
       </c>
       <c r="E96" s="12">
         <f>Update!D96</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="12">
         <f>Update!E96</f>
@@ -5528,7 +5564,7 @@
       </c>
       <c r="G96" s="11">
         <f>Update!F96</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H96" s="14">
         <f>Update!G96</f>
@@ -5544,23 +5580,20 @@
     <row r="97" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="str">
         <f>Update!A97</f>
-        <v>Kazakhstan</v>
+        <v>Azerbaijan</v>
       </c>
       <c r="B97" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>काजकस्तान</v>
+        <v>अजरबाईजान</v>
       </c>
       <c r="C97" s="13">
         <f>Update!B97</f>
-        <v>60</v>
-      </c>
-      <c r="D97" s="13">
-        <f>Update!C97</f>
-        <v>0</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D97" s="13"/>
       <c r="E97" s="12">
         <f>Update!D97</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="12">
         <f>Update!E97</f>
@@ -5568,7 +5601,7 @@
       </c>
       <c r="G97" s="11">
         <f>Update!F97</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H97" s="14">
         <f>Update!G97</f>
@@ -5584,19 +5617,19 @@
     <row r="98" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="str">
         <f>Update!A98</f>
-        <v>Palestine</v>
+        <v>Kazakhstan</v>
       </c>
       <c r="B98" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>प्यालेस्टाईन</v>
+        <v>काजकस्तान</v>
       </c>
       <c r="C98" s="13">
         <f>Update!B98</f>
-        <v>59</v>
-      </c>
-      <c r="D98" s="13">
+        <v>62</v>
+      </c>
+      <c r="D98" s="13" t="str">
         <f>Update!C98</f>
-        <v>0</v>
+        <v>↑ 2 (3.33%)</v>
       </c>
       <c r="E98" s="12">
         <f>Update!D98</f>
@@ -5608,7 +5641,7 @@
       </c>
       <c r="G98" s="11">
         <f>Update!F98</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H98" s="14">
         <f>Update!G98</f>
@@ -5624,20 +5657,17 @@
     <row r="99" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="str">
         <f>Update!A99</f>
-        <v>Oman</v>
+        <v>Palestine</v>
       </c>
       <c r="B99" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>अोमान</v>
+        <v>प्यालेस्टाईन</v>
       </c>
       <c r="C99" s="13">
         <f>Update!B99</f>
-        <v>55</v>
-      </c>
-      <c r="D99" s="13">
-        <f>Update!C99</f>
-        <v>0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D99" s="13"/>
       <c r="E99" s="12">
         <f>Update!D99</f>
         <v>0</v>
@@ -5664,19 +5694,19 @@
     <row r="100" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="str">
         <f>Update!A100</f>
-        <v>Georgia</v>
+        <v>Cameroon</v>
       </c>
       <c r="B100" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>जोर्जिया</v>
+        <v>क्यामरुन</v>
       </c>
       <c r="C100" s="13">
         <f>Update!B100</f>
-        <v>54</v>
-      </c>
-      <c r="D100" s="13">
+        <v>56</v>
+      </c>
+      <c r="D100" s="13" t="str">
         <f>Update!C100</f>
-        <v>0</v>
+        <v>↑ 16 (40%)</v>
       </c>
       <c r="E100" s="12">
         <f>Update!D100</f>
@@ -5688,11 +5718,11 @@
       </c>
       <c r="G100" s="11">
         <f>Update!F100</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H100" s="14">
         <f>Update!G100</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>57</v>
@@ -5704,20 +5734,17 @@
     <row r="101" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="str">
         <f>Update!A101</f>
-        <v>Trinidad and Tobago</v>
+        <v>Georgia</v>
       </c>
       <c r="B101" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>ट्रिनिडाड र टाबागो</v>
+        <v>जोर्जिया</v>
       </c>
       <c r="C101" s="13">
         <f>Update!B101</f>
-        <v>50</v>
-      </c>
-      <c r="D101" s="13">
-        <f>Update!C101</f>
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D101" s="13"/>
       <c r="E101" s="12">
         <f>Update!D101</f>
         <v>0</v>
@@ -5728,11 +5755,11 @@
       </c>
       <c r="G101" s="11">
         <f>Update!F101</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H101" s="14">
         <f>Update!G101</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>150</v>
@@ -5744,20 +5771,17 @@
     <row r="102" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="str">
         <f>Update!A102</f>
-        <v>Liechtenstein</v>
+        <v>Trinidad and Tobago</v>
       </c>
       <c r="B102" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>लिचटेनस्टेन</v>
+        <v>ट्रिनिडाड र टाबागो</v>
       </c>
       <c r="C102" s="13">
         <f>Update!B102</f>
-        <v>44</v>
-      </c>
-      <c r="D102" s="13">
-        <f>Update!C102</f>
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D102" s="13"/>
       <c r="E102" s="12">
         <f>Update!D102</f>
         <v>0</v>
@@ -5784,19 +5808,19 @@
     <row r="103" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="str">
         <f>Update!A103</f>
-        <v>Uzbekistan</v>
+        <v>Liechtenstein</v>
       </c>
       <c r="B103" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>उज्बेकिस्तान</v>
+        <v>लिचटेनस्टेन</v>
       </c>
       <c r="C103" s="13">
         <f>Update!B103</f>
-        <v>43</v>
-      </c>
-      <c r="D103" s="13">
+        <v>46</v>
+      </c>
+      <c r="D103" s="13" t="str">
         <f>Update!C103</f>
-        <v>0</v>
+        <v>↑ 9 (24.32%)</v>
       </c>
       <c r="E103" s="12">
         <f>Update!D103</f>
@@ -5824,19 +5848,19 @@
     <row r="104" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="str">
         <f>Update!A104</f>
-        <v>Cameroon</v>
+        <v>Uzbekistan</v>
       </c>
       <c r="B104" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>क्यामरुन</v>
+        <v>उज्बेकिस्तान</v>
       </c>
       <c r="C104" s="13">
         <f>Update!B104</f>
-        <v>40</v>
-      </c>
-      <c r="D104" s="13">
+        <v>46</v>
+      </c>
+      <c r="D104" s="13" t="str">
         <f>Update!C104</f>
-        <v>0</v>
+        <v>↑ 3 (6.97%)</v>
       </c>
       <c r="E104" s="12">
         <f>Update!D104</f>
@@ -5848,7 +5872,7 @@
       </c>
       <c r="G104" s="11">
         <f>Update!F104</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" s="14">
         <f>Update!G104</f>
@@ -5874,10 +5898,7 @@
         <f>Update!B105</f>
         <v>40</v>
       </c>
-      <c r="D105" s="13">
-        <f>Update!C105</f>
-        <v>0</v>
-      </c>
+      <c r="D105" s="13"/>
       <c r="E105" s="12">
         <f>Update!D105</f>
         <v>1</v>
@@ -5904,19 +5925,19 @@
     <row r="106" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="str">
         <f>Update!A106</f>
-        <v>Cuba</v>
+        <v>Nigeria</v>
       </c>
       <c r="B106" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>क्युबा</v>
+        <v>नाईजेरिया</v>
       </c>
       <c r="C106" s="13">
         <f>Update!B106</f>
         <v>35</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D106" s="13" t="str">
         <f>Update!C106</f>
-        <v>0</v>
+        <v>↑ 5 (16.66%)</v>
       </c>
       <c r="E106" s="12">
         <f>Update!D106</f>
@@ -5932,7 +5953,7 @@
       </c>
       <c r="H106" s="14">
         <f>Update!G106</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>146</v>
@@ -5944,23 +5965,20 @@
     <row r="107" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="str">
         <f>Update!A107</f>
-        <v>Northern Cyprus</v>
+        <v>Cuba</v>
       </c>
       <c r="B107" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>दक्षिणि साईप्रस</v>
+        <v>क्युबा</v>
       </c>
       <c r="C107" s="13">
         <f>Update!B107</f>
-        <v>34</v>
-      </c>
-      <c r="D107" s="13">
-        <f>Update!C107</f>
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D107" s="13"/>
       <c r="E107" s="12">
         <f>Update!D107</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="12">
         <f>Update!E107</f>
@@ -5968,11 +5986,11 @@
       </c>
       <c r="G107" s="11">
         <f>Update!F107</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H107" s="14">
         <f>Update!G107</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>83</v>
@@ -5984,23 +6002,20 @@
     <row r="108" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="str">
         <f>Update!A108</f>
-        <v>Kosovo</v>
+        <v>Northern Cyprus</v>
       </c>
       <c r="B108" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>कोसोभो</v>
+        <v>दक्षिणि साईप्रस</v>
       </c>
       <c r="C108" s="13">
         <f>Update!B108</f>
-        <v>31</v>
-      </c>
-      <c r="D108" s="13">
-        <f>Update!C108</f>
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D108" s="13"/>
       <c r="E108" s="12">
         <f>Update!D108</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" s="12">
         <f>Update!E108</f>
@@ -6008,7 +6023,7 @@
       </c>
       <c r="G108" s="11">
         <f>Update!F108</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H108" s="14">
         <f>Update!G108</f>
@@ -6024,31 +6039,31 @@
     <row r="109" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="str">
         <f>Update!A109</f>
-        <v>DR Congo</v>
+        <v>Bangladesh</v>
       </c>
       <c r="B109" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>डिअार कङगो</v>
+        <v>बङ्गलादेश</v>
       </c>
       <c r="C109" s="13">
         <f>Update!B109</f>
-        <v>30</v>
-      </c>
-      <c r="D109" s="13">
+        <v>33</v>
+      </c>
+      <c r="D109" s="13" t="str">
         <f>Update!C109</f>
-        <v>0</v>
+        <v>↑ 6 (22.22%)</v>
       </c>
       <c r="E109" s="12">
         <f>Update!D109</f>
-        <v>1</v>
-      </c>
-      <c r="F109" s="12">
+        <v>3</v>
+      </c>
+      <c r="F109" s="12" t="str">
         <f>Update!E109</f>
-        <v>0</v>
+        <v>↑ 1 (50%)</v>
       </c>
       <c r="G109" s="11">
         <f>Update!F109</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H109" s="14">
         <f>Update!G109</f>
@@ -6064,23 +6079,20 @@
     <row r="110" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="str">
         <f>Update!A110</f>
-        <v>Nigeria</v>
+        <v>Kosovo</v>
       </c>
       <c r="B110" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>नाईजेरिया</v>
+        <v>कोसोभो</v>
       </c>
       <c r="C110" s="13">
         <f>Update!B110</f>
-        <v>30</v>
-      </c>
-      <c r="D110" s="13">
-        <f>Update!C110</f>
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D110" s="13"/>
       <c r="E110" s="12">
         <f>Update!D110</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="12">
         <f>Update!E110</f>
@@ -6088,7 +6100,7 @@
       </c>
       <c r="G110" s="11">
         <f>Update!F110</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110" s="14">
         <f>Update!G110</f>
@@ -6104,20 +6116,17 @@
     <row r="111" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="str">
         <f>Update!A111</f>
-        <v>Mauritius</v>
+        <v>DR Congo</v>
       </c>
       <c r="B111" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>मोरिसियस</v>
+        <v>डिअार कङगो</v>
       </c>
       <c r="C111" s="13">
         <f>Update!B111</f>
-        <v>28</v>
-      </c>
-      <c r="D111" s="13">
-        <f>Update!C111</f>
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D111" s="13"/>
       <c r="E111" s="12">
         <f>Update!D111</f>
         <v>2</v>
@@ -6144,23 +6153,20 @@
     <row r="112" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="str">
         <f>Update!A112</f>
-        <v>Bolivia</v>
+        <v>Mauritius</v>
       </c>
       <c r="B112" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>बोलिभिया</v>
+        <v>मोरिसियस</v>
       </c>
       <c r="C112" s="13">
         <f>Update!B112</f>
-        <v>27</v>
-      </c>
-      <c r="D112" s="13">
-        <f>Update!C112</f>
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D112" s="13"/>
       <c r="E112" s="12">
         <f>Update!D112</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F112" s="12">
         <f>Update!E112</f>
@@ -6184,23 +6190,23 @@
     <row r="113" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="str">
         <f>Update!A113</f>
-        <v>Bangladesh</v>
+        <v>Bolivia</v>
       </c>
       <c r="B113" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>बङ्गलादेश</v>
+        <v>बोलिभिया</v>
       </c>
       <c r="C113" s="13">
         <f>Update!B113</f>
         <v>27</v>
       </c>
-      <c r="D113" s="13">
+      <c r="D113" s="13" t="str">
         <f>Update!C113</f>
-        <v>0</v>
+        <v>↑ 3 (12.5%)</v>
       </c>
       <c r="E113" s="12">
         <f>Update!D113</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F113" s="12">
         <f>Update!E113</f>
@@ -6208,7 +6214,7 @@
       </c>
       <c r="G113" s="11">
         <f>Update!F113</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H113" s="14">
         <f>Update!G113</f>
@@ -6234,10 +6240,7 @@
         <f>Update!B114</f>
         <v>26</v>
       </c>
-      <c r="D114" s="13">
-        <f>Update!C114</f>
-        <v>0</v>
-      </c>
+      <c r="D114" s="13"/>
       <c r="E114" s="12">
         <f>Update!D114</f>
         <v>0</v>
@@ -6264,23 +6267,23 @@
     <row r="115" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="str">
         <f>Update!A115</f>
-        <v>Ghana</v>
+        <v>Ivory Coast</v>
       </c>
       <c r="B115" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>घाना</v>
+        <v>अाईभरि कोस्ट</v>
       </c>
       <c r="C115" s="13">
         <f>Update!B115</f>
-        <v>24</v>
-      </c>
-      <c r="D115" s="13">
+        <v>25</v>
+      </c>
+      <c r="D115" s="13" t="str">
         <f>Update!C115</f>
-        <v>0</v>
+        <v>↑ 11 (78.57%)</v>
       </c>
       <c r="E115" s="12">
         <f>Update!D115</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" s="12">
         <f>Update!E115</f>
@@ -6288,7 +6291,7 @@
       </c>
       <c r="G115" s="11">
         <f>Update!F115</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H115" s="14">
         <f>Update!G115</f>
@@ -6304,23 +6307,23 @@
     <row r="116" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="str">
         <f>Update!A116</f>
-        <v>Monaco</v>
+        <v>Ghana</v>
       </c>
       <c r="B116" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>मोनाको</v>
+        <v>घाना</v>
       </c>
       <c r="C116" s="13">
         <f>Update!B116</f>
-        <v>23</v>
-      </c>
-      <c r="D116" s="13">
+        <v>24</v>
+      </c>
+      <c r="D116" s="13" t="str">
         <f>Update!C116</f>
-        <v>0</v>
+        <v>↑ 1 (4.34%)</v>
       </c>
       <c r="E116" s="12">
         <f>Update!D116</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" s="12">
         <f>Update!E116</f>
@@ -6328,7 +6331,7 @@
       </c>
       <c r="G116" s="11">
         <f>Update!F116</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" s="14">
         <f>Update!G116</f>
@@ -6344,23 +6347,20 @@
     <row r="117" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="str">
         <f>Update!A117</f>
-        <v>Paraguay</v>
+        <v>Monaco</v>
       </c>
       <c r="B117" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>पाराग्वे</v>
+        <v>मोनाको</v>
       </c>
       <c r="C117" s="13">
         <f>Update!B117</f>
-        <v>22</v>
-      </c>
-      <c r="D117" s="13">
-        <f>Update!C117</f>
-        <v>0</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D117" s="13"/>
       <c r="E117" s="12">
         <f>Update!D117</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" s="12">
         <f>Update!E117</f>
@@ -6368,11 +6368,11 @@
       </c>
       <c r="G117" s="11">
         <f>Update!F117</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" s="14">
         <f>Update!G117</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>171</v>
@@ -6384,20 +6384,17 @@
     <row r="118" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="str">
         <f>Update!A118</f>
-        <v>Montenegro</v>
+        <v>Paraguay</v>
       </c>
       <c r="B118" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>मोन्टेनेग्रो</v>
+        <v>पाराग्वे</v>
       </c>
       <c r="C118" s="13">
         <f>Update!B118</f>
-        <v>21</v>
-      </c>
-      <c r="D118" s="13">
-        <f>Update!C118</f>
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D118" s="13"/>
       <c r="E118" s="12">
         <f>Update!D118</f>
         <v>1</v>
@@ -6412,7 +6409,7 @@
       </c>
       <c r="H118" s="14">
         <f>Update!G118</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>122</v>
@@ -6424,19 +6421,19 @@
     <row r="119" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="str">
         <f>Update!A119</f>
-        <v>Jamaica</v>
+        <v>Montenegro</v>
       </c>
       <c r="B119" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>जमाईका</v>
+        <v>मोन्टेनेग्रो</v>
       </c>
       <c r="C119" s="13">
         <f>Update!B119</f>
-        <v>19</v>
-      </c>
-      <c r="D119" s="13">
+        <v>22</v>
+      </c>
+      <c r="D119" s="13" t="str">
         <f>Update!C119</f>
-        <v>0</v>
+        <v>↑ 1 (4.76%)</v>
       </c>
       <c r="E119" s="12">
         <f>Update!D119</f>
@@ -6448,7 +6445,7 @@
       </c>
       <c r="G119" s="11">
         <f>Update!F119</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H119" s="14">
         <f>Update!G119</f>
@@ -6464,20 +6461,17 @@
     <row r="120" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="str">
         <f>Update!A120</f>
-        <v>Guatemala</v>
+        <v>Jamaica</v>
       </c>
       <c r="B120" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>ग्वाटेमाला</v>
+        <v>जमाईका</v>
       </c>
       <c r="C120" s="13">
         <f>Update!B120</f>
         <v>19</v>
       </c>
-      <c r="D120" s="13">
-        <f>Update!C120</f>
-        <v>0</v>
-      </c>
+      <c r="D120" s="13"/>
       <c r="E120" s="12">
         <f>Update!D120</f>
         <v>1</v>
@@ -6488,7 +6482,7 @@
       </c>
       <c r="G120" s="11">
         <f>Update!F120</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120" s="14">
         <f>Update!G120</f>
@@ -6514,10 +6508,7 @@
         <f>Update!B121</f>
         <v>19</v>
       </c>
-      <c r="D121" s="13">
-        <f>Update!C121</f>
-        <v>0</v>
-      </c>
+      <c r="D121" s="13"/>
       <c r="E121" s="12">
         <f>Update!D121</f>
         <v>0</v>
@@ -6544,20 +6535,17 @@
     <row r="122" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="str">
         <f>Update!A122</f>
-        <v>Guyana</v>
+        <v>Guatemala</v>
       </c>
       <c r="B122" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>गुयाना</v>
+        <v>ग्वाटेमाला</v>
       </c>
       <c r="C122" s="13">
         <f>Update!B122</f>
         <v>19</v>
       </c>
-      <c r="D122" s="13">
-        <f>Update!C122</f>
-        <v>0</v>
-      </c>
+      <c r="D122" s="13"/>
       <c r="E122" s="12">
         <f>Update!D122</f>
         <v>1</v>
@@ -6584,23 +6572,20 @@
     <row r="123" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="str">
         <f>Update!A123</f>
-        <v>French Polynesia</v>
+        <v>Guyana</v>
       </c>
       <c r="B123" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>फ्रान्सेलि पोलयनेसिया</v>
+        <v>गुयाना</v>
       </c>
       <c r="C123" s="13">
         <f>Update!B123</f>
-        <v>18</v>
-      </c>
-      <c r="D123" s="13">
-        <f>Update!C123</f>
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D123" s="13"/>
       <c r="E123" s="12">
         <f>Update!D123</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" s="12">
         <f>Update!E123</f>
@@ -6624,20 +6609,17 @@
     <row r="124" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="str">
         <f>Update!A124</f>
-        <v>Macau</v>
+        <v>French Polynesia</v>
       </c>
       <c r="B124" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>मकाउ</v>
+        <v>फ्रान्सेलि पोलयनेसिया</v>
       </c>
       <c r="C124" s="13">
         <f>Update!B124</f>
-        <v>17</v>
-      </c>
-      <c r="D124" s="13">
-        <f>Update!C124</f>
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D124" s="13"/>
       <c r="E124" s="12">
         <f>Update!D124</f>
         <v>0</v>
@@ -6648,7 +6630,7 @@
       </c>
       <c r="G124" s="11">
         <f>Update!F124</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H124" s="14">
         <f>Update!G124</f>
@@ -6664,20 +6646,17 @@
     <row r="125" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="str">
         <f>Update!A125</f>
-        <v>Togo</v>
+        <v>Macau</v>
       </c>
       <c r="B125" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>टोगो</v>
+        <v>मकाउ</v>
       </c>
       <c r="C125" s="13">
         <f>Update!B125</f>
-        <v>16</v>
-      </c>
-      <c r="D125" s="13">
-        <f>Update!C125</f>
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D125" s="13"/>
       <c r="E125" s="12">
         <f>Update!D125</f>
         <v>0</v>
@@ -6688,7 +6667,7 @@
       </c>
       <c r="G125" s="11">
         <f>Update!F125</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H125" s="14">
         <f>Update!G125</f>
@@ -6704,19 +6683,19 @@
     <row r="126" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="str">
         <f>Update!A126</f>
-        <v>Gibraltar</v>
+        <v>Barbados</v>
       </c>
       <c r="B126" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>गिब्रल्टार</v>
+        <v>बार्बादोस</v>
       </c>
       <c r="C126" s="13">
         <f>Update!B126</f>
-        <v>15</v>
-      </c>
-      <c r="D126" s="13">
+        <v>17</v>
+      </c>
+      <c r="D126" s="13" t="str">
         <f>Update!C126</f>
-        <v>0</v>
+        <v>↑ 3 (21.42%)</v>
       </c>
       <c r="E126" s="12">
         <f>Update!D126</f>
@@ -6728,11 +6707,11 @@
       </c>
       <c r="G126" s="11">
         <f>Update!F126</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H126" s="14">
         <f>Update!G126</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>59</v>
@@ -6744,20 +6723,17 @@
     <row r="127" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="str">
         <f>Update!A127</f>
-        <v>Kenya</v>
+        <v>Togo</v>
       </c>
       <c r="B127" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>केन्या</v>
+        <v>टोगो</v>
       </c>
       <c r="C127" s="13">
         <f>Update!B127</f>
-        <v>15</v>
-      </c>
-      <c r="D127" s="13">
-        <f>Update!C127</f>
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D127" s="13"/>
       <c r="E127" s="12">
         <f>Update!D127</f>
         <v>0</v>
@@ -6768,7 +6744,7 @@
       </c>
       <c r="G127" s="11">
         <f>Update!F127</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="14">
         <f>Update!G127</f>
@@ -6784,20 +6760,17 @@
     <row r="128" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="str">
         <f>Update!A128</f>
-        <v>Ivory Coast</v>
+        <v>Gibraltar</v>
       </c>
       <c r="B128" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>अाईभरि कोस्ट</v>
+        <v>गिब्रल्टार</v>
       </c>
       <c r="C128" s="13">
         <f>Update!B128</f>
-        <v>14</v>
-      </c>
-      <c r="D128" s="13">
-        <f>Update!C128</f>
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D128" s="13"/>
       <c r="E128" s="12">
         <f>Update!D128</f>
         <v>0</v>
@@ -6808,11 +6781,11 @@
       </c>
       <c r="G128" s="11">
         <f>Update!F128</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" s="14">
         <f>Update!G128</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>85</v>
@@ -6824,20 +6797,17 @@
     <row r="129" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="str">
         <f>Update!A129</f>
-        <v>Kyrgyzstan</v>
+        <v>Kenya</v>
       </c>
       <c r="B129" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>किर्गिजस्तान</v>
+        <v>केन्या</v>
       </c>
       <c r="C129" s="13">
         <f>Update!B129</f>
-        <v>14</v>
-      </c>
-      <c r="D129" s="13">
-        <f>Update!C129</f>
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D129" s="13"/>
       <c r="E129" s="12">
         <f>Update!D129</f>
         <v>0</v>
@@ -6864,20 +6834,17 @@
     <row r="130" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="str">
         <f>Update!A130</f>
-        <v>Barbados</v>
+        <v>Kyrgyzstan</v>
       </c>
       <c r="B130" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>बार्बादोस</v>
+        <v>किर्गिजस्तान</v>
       </c>
       <c r="C130" s="13">
         <f>Update!B130</f>
         <v>14</v>
       </c>
-      <c r="D130" s="13">
-        <f>Update!C130</f>
-        <v>0</v>
-      </c>
+      <c r="D130" s="13"/>
       <c r="E130" s="12">
         <f>Update!D130</f>
         <v>0</v>
@@ -6907,17 +6874,14 @@
         <v>Maldives</v>
       </c>
       <c r="B131" s="9" t="str">
-        <f t="shared" ref="B131:B175" si="2">INDEX($J$2:$J$175,MATCH(A131,$I$2:$I$175,0))</f>
+        <f t="shared" ref="B131:B175" si="2">INDEX($J$2:$J$176,MATCH(A131,$I$2:$I$176,0))</f>
         <v>माल्दिभ्स</v>
       </c>
       <c r="C131" s="13">
         <f>Update!B131</f>
         <v>13</v>
       </c>
-      <c r="D131" s="13">
-        <f>Update!C131</f>
-        <v>0</v>
-      </c>
+      <c r="D131" s="13"/>
       <c r="E131" s="12">
         <f>Update!D131</f>
         <v>0</v>
@@ -6928,7 +6892,7 @@
       </c>
       <c r="G131" s="11">
         <f>Update!F131</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H131" s="14">
         <f>Update!G131</f>
@@ -6954,10 +6918,7 @@
         <f>Update!B132</f>
         <v>12</v>
       </c>
-      <c r="D132" s="13">
-        <f>Update!C132</f>
-        <v>0</v>
-      </c>
+      <c r="D132" s="13"/>
       <c r="E132" s="12">
         <f>Update!D132</f>
         <v>0</v>
@@ -6994,10 +6955,7 @@
         <f>Update!B133</f>
         <v>12</v>
       </c>
-      <c r="D133" s="13">
-        <f>Update!C133</f>
-        <v>0</v>
-      </c>
+      <c r="D133" s="13"/>
       <c r="E133" s="12">
         <f>Update!D133</f>
         <v>0</v>
@@ -7034,10 +6992,7 @@
         <f>Update!B134</f>
         <v>11</v>
       </c>
-      <c r="D134" s="13">
-        <f>Update!C134</f>
-        <v>0</v>
-      </c>
+      <c r="D134" s="13"/>
       <c r="E134" s="12">
         <f>Update!D134</f>
         <v>0</v>
@@ -7074,10 +7029,7 @@
         <f>Update!B135</f>
         <v>10</v>
       </c>
-      <c r="D135" s="13">
-        <f>Update!C135</f>
-        <v>0</v>
-      </c>
+      <c r="D135" s="13"/>
       <c r="E135" s="12">
         <f>Update!D135</f>
         <v>0</v>
@@ -7114,10 +7066,7 @@
         <f>Update!B136</f>
         <v>9</v>
       </c>
-      <c r="D136" s="13">
-        <f>Update!C136</f>
-        <v>0</v>
-      </c>
+      <c r="D136" s="13"/>
       <c r="E136" s="12">
         <f>Update!D136</f>
         <v>0</v>
@@ -7144,19 +7093,19 @@
     <row r="137" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="str">
         <f>Update!A137</f>
-        <v>Seychelles</v>
+        <v>New Caledonia</v>
       </c>
       <c r="B137" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>सेचेलेस</v>
+        <v>न्यु क्यालेडोनिया</v>
       </c>
       <c r="C137" s="13">
         <f>Update!B137</f>
-        <v>7</v>
-      </c>
-      <c r="D137" s="13">
+        <v>8</v>
+      </c>
+      <c r="D137" s="13" t="str">
         <f>Update!C137</f>
-        <v>0</v>
+        <v>↑ 4 (10%)</v>
       </c>
       <c r="E137" s="12">
         <f>Update!D137</f>
@@ -7172,7 +7121,7 @@
       </c>
       <c r="H137" s="14">
         <f>Update!G137</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" s="7" t="s">
         <v>151</v>
@@ -7184,20 +7133,17 @@
     <row r="138" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="str">
         <f>Update!A138</f>
-        <v>Equatorial Guinea</v>
+        <v>Seychelles</v>
       </c>
       <c r="B138" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>ईक्वेटोरियल गिनिया</v>
+        <v>सेचेलेस</v>
       </c>
       <c r="C138" s="13">
         <f>Update!B138</f>
-        <v>6</v>
-      </c>
-      <c r="D138" s="13">
-        <f>Update!C138</f>
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D138" s="13"/>
       <c r="E138" s="12">
         <f>Update!D138</f>
         <v>0</v>
@@ -7212,7 +7158,7 @@
       </c>
       <c r="H138" s="14">
         <f>Update!G138</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" s="7" t="s">
         <v>182</v>
@@ -7224,23 +7170,20 @@
     <row r="139" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="str">
         <f>Update!A139</f>
-        <v>Gabon</v>
+        <v>Equatorial Guinea</v>
       </c>
       <c r="B139" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>गबोन</v>
+        <v>ईक्वेटोरियल गिनिया</v>
       </c>
       <c r="C139" s="13">
         <f>Update!B139</f>
-        <v>5</v>
-      </c>
-      <c r="D139" s="13">
-        <f>Update!C139</f>
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D139" s="13"/>
       <c r="E139" s="12">
         <f>Update!D139</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" s="12">
         <f>Update!E139</f>
@@ -7264,23 +7207,20 @@
     <row r="140" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="str">
         <f>Update!A140</f>
-        <v>Suriname</v>
+        <v>Gabon</v>
       </c>
       <c r="B140" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>सुरिनामे</v>
+        <v>गबोन</v>
       </c>
       <c r="C140" s="13">
         <f>Update!B140</f>
         <v>5</v>
       </c>
-      <c r="D140" s="13">
-        <f>Update!C140</f>
-        <v>0</v>
-      </c>
+      <c r="D140" s="13"/>
       <c r="E140" s="12">
         <f>Update!D140</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" s="12">
         <f>Update!E140</f>
@@ -7304,20 +7244,17 @@
     <row r="141" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="str">
         <f>Update!A141</f>
-        <v>Isle of Man</v>
+        <v>Suriname</v>
       </c>
       <c r="B141" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>अायल घफ म्यान</v>
+        <v>सुरिनामे</v>
       </c>
       <c r="C141" s="13">
         <f>Update!B141</f>
         <v>5</v>
       </c>
-      <c r="D141" s="13">
-        <f>Update!C141</f>
-        <v>0</v>
-      </c>
+      <c r="D141" s="13"/>
       <c r="E141" s="12">
         <f>Update!D141</f>
         <v>0</v>
@@ -7344,19 +7281,19 @@
     <row r="142" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="str">
         <f>Update!A142</f>
-        <v>New Caledonia</v>
+        <v>Haiti</v>
       </c>
       <c r="B142" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>न्यु क्यालेडोनिया</v>
+        <v>हाईटि</v>
       </c>
       <c r="C142" s="13">
         <f>Update!B142</f>
-        <v>4</v>
-      </c>
-      <c r="D142" s="13">
+        <v>5</v>
+      </c>
+      <c r="D142" s="13" t="str">
         <f>Update!C142</f>
-        <v>0</v>
+        <v>↑ 3 (15%)</v>
       </c>
       <c r="E142" s="12">
         <f>Update!D142</f>
@@ -7384,20 +7321,17 @@
     <row r="143" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="str">
         <f>Update!A143</f>
-        <v>Bahamas</v>
+        <v>Isle of Man</v>
       </c>
       <c r="B143" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>बहामस</v>
+        <v>अायल घफ म्यान</v>
       </c>
       <c r="C143" s="13">
         <f>Update!B143</f>
-        <v>4</v>
-      </c>
-      <c r="D143" s="13">
-        <f>Update!C143</f>
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D143" s="13"/>
       <c r="E143" s="12">
         <f>Update!D143</f>
         <v>0</v>
@@ -7424,20 +7358,17 @@
     <row r="144" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="str">
         <f>Update!A144</f>
-        <v>Greenland</v>
+        <v>Bahamas</v>
       </c>
       <c r="B144" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>ग्रिनल्यान्ड</v>
+        <v>बहामस</v>
       </c>
       <c r="C144" s="13">
         <f>Update!B144</f>
         <v>4</v>
       </c>
-      <c r="D144" s="13">
-        <f>Update!C144</f>
-        <v>0</v>
-      </c>
+      <c r="D144" s="13"/>
       <c r="E144" s="12">
         <f>Update!D144</f>
         <v>0</v>
@@ -7464,20 +7395,17 @@
     <row r="145" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="str">
         <f>Update!A145</f>
-        <v>Eswatini</v>
+        <v>Congo Republic</v>
       </c>
       <c r="B145" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>एस्वाटिनि</v>
+        <v>कोङगो रिपब्लिक</v>
       </c>
       <c r="C145" s="13">
         <f>Update!B145</f>
         <v>4</v>
       </c>
-      <c r="D145" s="13">
-        <f>Update!C145</f>
-        <v>0</v>
-      </c>
+      <c r="D145" s="13"/>
       <c r="E145" s="12">
         <f>Update!D145</f>
         <v>0</v>
@@ -7504,23 +7432,20 @@
     <row r="146" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="str">
         <f>Update!A146</f>
-        <v>Cayman Islands</v>
+        <v>Greenland</v>
       </c>
       <c r="B146" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>केम्यान अाईल्यान्डस</v>
+        <v>ग्रिनल्यान्ड</v>
       </c>
       <c r="C146" s="13">
         <f>Update!B146</f>
-        <v>3</v>
-      </c>
-      <c r="D146" s="13">
-        <f>Update!C146</f>
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D146" s="13"/>
       <c r="E146" s="12">
         <f>Update!D146</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" s="12">
         <f>Update!E146</f>
@@ -7544,23 +7469,20 @@
     <row r="147" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="str">
         <f>Update!A147</f>
-        <v>Curaçao</v>
+        <v>Eswatini</v>
       </c>
       <c r="B147" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>कुराकाअाे</v>
+        <v>एस्वाटिनि</v>
       </c>
       <c r="C147" s="13">
         <f>Update!B147</f>
-        <v>3</v>
-      </c>
-      <c r="D147" s="13">
-        <f>Update!C147</f>
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D147" s="13"/>
       <c r="E147" s="12">
         <f>Update!D147</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" s="12">
         <f>Update!E147</f>
@@ -7584,23 +7506,20 @@
     <row r="148" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="str">
         <f>Update!A148</f>
-        <v>Congo Republic</v>
+        <v>Cayman Islands</v>
       </c>
       <c r="B148" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>कोङगो रिपब्लिक</v>
+        <v>केम्यान अाईल्यान्डस</v>
       </c>
       <c r="C148" s="13">
         <f>Update!B148</f>
         <v>3</v>
       </c>
-      <c r="D148" s="13">
-        <f>Update!C148</f>
-        <v>0</v>
-      </c>
+      <c r="D148" s="13"/>
       <c r="E148" s="12">
         <f>Update!D148</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" s="12">
         <f>Update!E148</f>
@@ -7624,23 +7543,20 @@
     <row r="149" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="str">
         <f>Update!A149</f>
-        <v>Namibia</v>
+        <v>Curaçao</v>
       </c>
       <c r="B149" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>नामिबिया</v>
+        <v>कुराकाअाे</v>
       </c>
       <c r="C149" s="13">
         <f>Update!B149</f>
         <v>3</v>
       </c>
-      <c r="D149" s="13">
-        <f>Update!C149</f>
-        <v>0</v>
-      </c>
+      <c r="D149" s="13"/>
       <c r="E149" s="12">
         <f>Update!D149</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" s="12">
         <f>Update!E149</f>
@@ -7664,20 +7580,17 @@
     <row r="150" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="str">
         <f>Update!A150</f>
-        <v>El Salvador</v>
+        <v>Namibia</v>
       </c>
       <c r="B150" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>एल सालभाडोर</v>
+        <v>नामिबिया</v>
       </c>
       <c r="C150" s="13">
         <f>Update!B150</f>
         <v>3</v>
       </c>
-      <c r="D150" s="13">
-        <f>Update!C150</f>
-        <v>0</v>
-      </c>
+      <c r="D150" s="13"/>
       <c r="E150" s="12">
         <f>Update!D150</f>
         <v>0</v>
@@ -7704,20 +7617,17 @@
     <row r="151" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="str">
         <f>Update!A151</f>
-        <v>Liberia</v>
+        <v>El Salvador</v>
       </c>
       <c r="B151" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>लाईबेरिया</v>
+        <v>एल सालभाडोर</v>
       </c>
       <c r="C151" s="13">
         <f>Update!B151</f>
         <v>3</v>
       </c>
-      <c r="D151" s="13">
-        <f>Update!C151</f>
-        <v>0</v>
-      </c>
+      <c r="D151" s="13"/>
       <c r="E151" s="12">
         <f>Update!D151</f>
         <v>0</v>
@@ -7744,20 +7654,17 @@
     <row r="152" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="str">
         <f>Update!A152</f>
-        <v>Zambia</v>
+        <v>Liberia</v>
       </c>
       <c r="B152" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>जाम्बिया</v>
+        <v>लाईबेरिया</v>
       </c>
       <c r="C152" s="13">
         <f>Update!B152</f>
         <v>3</v>
       </c>
-      <c r="D152" s="13">
-        <f>Update!C152</f>
-        <v>0</v>
-      </c>
+      <c r="D152" s="13"/>
       <c r="E152" s="12">
         <f>Update!D152</f>
         <v>0</v>
@@ -7784,19 +7691,19 @@
     <row r="153" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="str">
         <f>Update!A153</f>
-        <v>Haiti</v>
+        <v>Fiji</v>
       </c>
       <c r="B153" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>हाईटि</v>
+        <v>फिजि</v>
       </c>
       <c r="C153" s="13">
         <f>Update!B153</f>
-        <v>2</v>
-      </c>
-      <c r="D153" s="13">
+        <v>3</v>
+      </c>
+      <c r="D153" s="13" t="str">
         <f>Update!C153</f>
-        <v>0</v>
+        <v>↑ 1 (50%)</v>
       </c>
       <c r="E153" s="12">
         <f>Update!D153</f>
@@ -7824,20 +7731,17 @@
     <row r="154" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="str">
         <f>Update!A154</f>
-        <v>Saint Lucia</v>
+        <v>Zambia</v>
       </c>
       <c r="B154" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>सेन्ट लुसिया</v>
+        <v>जाम्बिया</v>
       </c>
       <c r="C154" s="13">
         <f>Update!B154</f>
-        <v>2</v>
-      </c>
-      <c r="D154" s="13">
-        <f>Update!C154</f>
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D154" s="13"/>
       <c r="E154" s="12">
         <f>Update!D154</f>
         <v>0</v>
@@ -7864,20 +7768,17 @@
     <row r="155" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="str">
         <f>Update!A155</f>
-        <v>Guinea</v>
+        <v>Saint Lucia</v>
       </c>
       <c r="B155" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>गिनिया</v>
+        <v>सेन्ट लुसिया</v>
       </c>
       <c r="C155" s="13">
         <f>Update!B155</f>
         <v>2</v>
       </c>
-      <c r="D155" s="13">
-        <f>Update!C155</f>
-        <v>0</v>
-      </c>
+      <c r="D155" s="13"/>
       <c r="E155" s="12">
         <f>Update!D155</f>
         <v>0</v>
@@ -7904,20 +7805,17 @@
     <row r="156" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="str">
         <f>Update!A156</f>
-        <v>Mauritania</v>
+        <v>Guinea</v>
       </c>
       <c r="B156" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>मोरिटानिया</v>
+        <v>गिनिया</v>
       </c>
       <c r="C156" s="13">
         <f>Update!B156</f>
         <v>2</v>
       </c>
-      <c r="D156" s="13">
-        <f>Update!C156</f>
-        <v>0</v>
-      </c>
+      <c r="D156" s="13"/>
       <c r="E156" s="12">
         <f>Update!D156</f>
         <v>0</v>
@@ -7944,20 +7842,17 @@
     <row r="157" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="str">
         <f>Update!A157</f>
-        <v>Benin</v>
+        <v>Mauritania</v>
       </c>
       <c r="B157" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>बेनिन</v>
+        <v>मोरिटानिया</v>
       </c>
       <c r="C157" s="13">
         <f>Update!B157</f>
         <v>2</v>
       </c>
-      <c r="D157" s="13">
-        <f>Update!C157</f>
-        <v>0</v>
-      </c>
+      <c r="D157" s="13"/>
       <c r="E157" s="12">
         <f>Update!D157</f>
         <v>0</v>
@@ -7984,20 +7879,17 @@
     <row r="158" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="str">
         <f>Update!A158</f>
-        <v>Bhutan</v>
+        <v>Benin</v>
       </c>
       <c r="B158" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>भुटान</v>
+        <v>बेनिन</v>
       </c>
       <c r="C158" s="13">
         <f>Update!B158</f>
         <v>2</v>
       </c>
-      <c r="D158" s="13">
-        <f>Update!C158</f>
-        <v>0</v>
-      </c>
+      <c r="D158" s="13"/>
       <c r="E158" s="12">
         <f>Update!D158</f>
         <v>0</v>
@@ -8024,20 +7916,17 @@
     <row r="159" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="str">
         <f>Update!A159</f>
-        <v>Guernsey</v>
+        <v>Bhutan</v>
       </c>
       <c r="B159" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>गुएर्नसे</v>
+        <v>भुटान</v>
       </c>
       <c r="C159" s="13">
         <f>Update!B159</f>
         <v>2</v>
       </c>
-      <c r="D159" s="13">
-        <f>Update!C159</f>
-        <v>0</v>
-      </c>
+      <c r="D159" s="13"/>
       <c r="E159" s="12">
         <f>Update!D159</f>
         <v>0</v>
@@ -8064,23 +7953,20 @@
     <row r="160" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="str">
         <f>Update!A160</f>
-        <v>Sudan</v>
+        <v>Guernsey</v>
       </c>
       <c r="B160" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>सुडान</v>
+        <v>गुएर्नसे</v>
       </c>
       <c r="C160" s="13">
         <f>Update!B160</f>
         <v>2</v>
       </c>
-      <c r="D160" s="13">
-        <f>Update!C160</f>
-        <v>0</v>
-      </c>
+      <c r="D160" s="13"/>
       <c r="E160" s="12">
         <f>Update!D160</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" s="12">
         <f>Update!E160</f>
@@ -8104,23 +7990,20 @@
     <row r="161" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="str">
         <f>Update!A161</f>
-        <v>Nicaragua</v>
+        <v>Sudan</v>
       </c>
       <c r="B161" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>निकारागुवा</v>
+        <v>सुडान</v>
       </c>
       <c r="C161" s="13">
         <f>Update!B161</f>
         <v>2</v>
       </c>
-      <c r="D161" s="13">
-        <f>Update!C161</f>
-        <v>0</v>
-      </c>
+      <c r="D161" s="13"/>
       <c r="E161" s="12">
         <f>Update!D161</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" s="12">
         <f>Update!E161</f>
@@ -8144,19 +8027,19 @@
     <row r="162" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="str">
         <f>Update!A162</f>
-        <v>Fiji</v>
+        <v>Nepal</v>
       </c>
       <c r="B162" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>फिजि</v>
+        <v>नेपाल</v>
       </c>
       <c r="C162" s="13">
         <f>Update!B162</f>
         <v>2</v>
       </c>
-      <c r="D162" s="13">
+      <c r="D162" s="13" t="str">
         <f>Update!C162</f>
-        <v>0</v>
+        <v>↑ 1 (10%)</v>
       </c>
       <c r="E162" s="12">
         <f>Update!D162</f>
@@ -8168,7 +8051,7 @@
       </c>
       <c r="G162" s="11">
         <f>Update!F162</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" s="14">
         <f>Update!G162</f>
@@ -8184,20 +8067,17 @@
     <row r="163" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="str">
         <f>Update!A163</f>
-        <v>Niger</v>
+        <v>Nicaragua</v>
       </c>
       <c r="B163" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>नाईजर</v>
+        <v>निकारागुवा</v>
       </c>
       <c r="C163" s="13">
         <f>Update!B163</f>
         <v>2</v>
       </c>
-      <c r="D163" s="13">
-        <f>Update!C163</f>
-        <v>0</v>
-      </c>
+      <c r="D163" s="13"/>
       <c r="E163" s="12">
         <f>Update!D163</f>
         <v>0</v>
@@ -8224,20 +8104,17 @@
     <row r="164" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="str">
         <f>Update!A164</f>
-        <v>Syria</v>
+        <v>Niger</v>
       </c>
       <c r="B164" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>सिरिया</v>
+        <v>नाईजर</v>
       </c>
       <c r="C164" s="13">
         <f>Update!B164</f>
-        <v>1</v>
-      </c>
-      <c r="D164" s="13">
-        <f>Update!C164</f>
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D164" s="13"/>
       <c r="E164" s="12">
         <f>Update!D164</f>
         <v>0</v>
@@ -8264,20 +8141,17 @@
     <row r="165" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="str">
         <f>Update!A165</f>
-        <v>Sint Maarten</v>
+        <v>Grenada</v>
       </c>
       <c r="B165" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>सेन्ट मार्टेन</v>
+        <v>ग्रेनाडा</v>
       </c>
       <c r="C165" s="13">
         <f>Update!B165</f>
         <v>1</v>
       </c>
-      <c r="D165" s="13">
-        <f>Update!C165</f>
-        <v>0</v>
-      </c>
+      <c r="D165" s="13"/>
       <c r="E165" s="12">
         <f>Update!D165</f>
         <v>0</v>
@@ -8304,20 +8178,17 @@
     <row r="166" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="str">
         <f>Update!A166</f>
-        <v>Chad</v>
+        <v>Syria</v>
       </c>
       <c r="B166" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>चाद</v>
+        <v>सिरिया</v>
       </c>
       <c r="C166" s="13">
         <f>Update!B166</f>
         <v>1</v>
       </c>
-      <c r="D166" s="13">
-        <f>Update!C166</f>
-        <v>0</v>
-      </c>
+      <c r="D166" s="13"/>
       <c r="E166" s="12">
         <f>Update!D166</f>
         <v>0</v>
@@ -8344,20 +8215,17 @@
     <row r="167" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="str">
         <f>Update!A167</f>
-        <v>Saint Vincent and the Grenadines</v>
+        <v>Sint Maarten</v>
       </c>
       <c r="B167" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>सेन्ट भिन्सेन्ट एन्ड द ग्रेनाडाईनस</v>
+        <v>सेन्ट मार्टेन</v>
       </c>
       <c r="C167" s="13">
         <f>Update!B167</f>
         <v>1</v>
       </c>
-      <c r="D167" s="13">
-        <f>Update!C167</f>
-        <v>0</v>
-      </c>
+      <c r="D167" s="13"/>
       <c r="E167" s="12">
         <f>Update!D167</f>
         <v>0</v>
@@ -8384,20 +8252,17 @@
     <row r="168" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="str">
         <f>Update!A168</f>
-        <v>Djibouti</v>
+        <v>Chad</v>
       </c>
       <c r="B168" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>डोिजिबोउटि</v>
+        <v>चाद</v>
       </c>
       <c r="C168" s="13">
         <f>Update!B168</f>
         <v>1</v>
       </c>
-      <c r="D168" s="13">
-        <f>Update!C168</f>
-        <v>0</v>
-      </c>
+      <c r="D168" s="13"/>
       <c r="E168" s="12">
         <f>Update!D168</f>
         <v>0</v>
@@ -8424,20 +8289,17 @@
     <row r="169" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="str">
         <f>Update!A169</f>
-        <v>Antigua and Barbuda</v>
+        <v>Saint Vincent and the Grenadines</v>
       </c>
       <c r="B169" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>एन्टिगुवा एण्ड बार्बुडा</v>
+        <v>सेन्ट भिन्सेन्ट एन्ड द ग्रेनाडाईनस</v>
       </c>
       <c r="C169" s="13">
         <f>Update!B169</f>
         <v>1</v>
       </c>
-      <c r="D169" s="13">
-        <f>Update!C169</f>
-        <v>0</v>
-      </c>
+      <c r="D169" s="13"/>
       <c r="E169" s="12">
         <f>Update!D169</f>
         <v>0</v>
@@ -8464,20 +8326,17 @@
     <row r="170" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="str">
         <f>Update!A170</f>
-        <v>Montserrat</v>
+        <v>Djibouti</v>
       </c>
       <c r="B170" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>मोन्टसेर्याट</v>
+        <v>डोिजिबोउटि</v>
       </c>
       <c r="C170" s="13">
         <f>Update!B170</f>
         <v>1</v>
       </c>
-      <c r="D170" s="13">
-        <f>Update!C170</f>
-        <v>0</v>
-      </c>
+      <c r="D170" s="13"/>
       <c r="E170" s="12">
         <f>Update!D170</f>
         <v>0</v>
@@ -8504,20 +8363,17 @@
     <row r="171" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="str">
         <f>Update!A171</f>
-        <v>Gambia</v>
+        <v>Antigua and Barbuda</v>
       </c>
       <c r="B171" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>गाम्बिया</v>
+        <v>एन्टिगुवा एण्ड बार्बुडा</v>
       </c>
       <c r="C171" s="13">
         <f>Update!B171</f>
         <v>1</v>
       </c>
-      <c r="D171" s="13">
-        <f>Update!C171</f>
-        <v>0</v>
-      </c>
+      <c r="D171" s="13"/>
       <c r="E171" s="12">
         <f>Update!D171</f>
         <v>0</v>
@@ -8544,20 +8400,17 @@
     <row r="172" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="str">
         <f>Update!A172</f>
-        <v>Somalia</v>
+        <v>Montserrat</v>
       </c>
       <c r="B172" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>सोमालिया</v>
+        <v>मोन्टसेर्याट</v>
       </c>
       <c r="C172" s="13">
         <f>Update!B172</f>
         <v>1</v>
       </c>
-      <c r="D172" s="13">
-        <f>Update!C172</f>
-        <v>0</v>
-      </c>
+      <c r="D172" s="13"/>
       <c r="E172" s="12">
         <f>Update!D172</f>
         <v>0</v>
@@ -8584,23 +8437,20 @@
     <row r="173" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="str">
         <f>Update!A173</f>
-        <v>Central African Republic</v>
+        <v>Gambia</v>
       </c>
       <c r="B173" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>मध्य अफ्रिकन रिपब्लिक</v>
+        <v>गाम्बिया</v>
       </c>
       <c r="C173" s="13">
         <f>Update!B173</f>
         <v>1</v>
       </c>
-      <c r="D173" s="13">
-        <f>Update!C173</f>
-        <v>0</v>
-      </c>
+      <c r="D173" s="13"/>
       <c r="E173" s="12">
         <f>Update!D173</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" s="12">
         <f>Update!E173</f>
@@ -8624,20 +8474,17 @@
     <row r="174" spans="1:10" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="str">
         <f>Update!A174</f>
-        <v>Nepal</v>
+        <v>Somalia</v>
       </c>
       <c r="B174" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>नेपाल</v>
+        <v>सोमालिया</v>
       </c>
       <c r="C174" s="13">
         <f>Update!B174</f>
         <v>1</v>
       </c>
-      <c r="D174" s="13">
-        <f>Update!C174</f>
-        <v>0</v>
-      </c>
+      <c r="D174" s="13"/>
       <c r="E174" s="12">
         <f>Update!D174</f>
         <v>0</v>
@@ -8648,7 +8495,7 @@
       </c>
       <c r="G174" s="11">
         <f>Update!F174</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" s="14">
         <f>Update!G174</f>
@@ -8664,20 +8511,17 @@
     <row r="175" spans="1:10" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="str">
         <f>Update!A175</f>
-        <v>Vatican City</v>
+        <v>Central African Republic</v>
       </c>
       <c r="B175" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>भ्याटिकन सिटि</v>
+        <v>मध्य अफ्रिकन रिपब्लिक</v>
       </c>
       <c r="C175" s="13">
         <f>Update!B175</f>
         <v>1</v>
       </c>
-      <c r="D175" s="13">
-        <f>Update!C175</f>
-        <v>0</v>
-      </c>
+      <c r="D175" s="13"/>
       <c r="E175" s="12">
         <f>Update!D175</f>
         <v>0</v>
@@ -8695,13 +8539,20 @@
         <v>0</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I176" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J176" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A5:J7">
     <sortCondition ref="I3"/>
@@ -8713,10 +8564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0397B718-82F4-294E-94DA-9DC5C924B206}">
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:O176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8763,18 +8614,18 @@
         <v>6</v>
       </c>
       <c r="B2" s="19">
-        <v>343222</v>
+        <v>347051</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="19">
-        <v>14730</v>
+        <v>14789</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="19">
-        <v>97344</v>
+        <v>97952</v>
       </c>
       <c r="G2" s="19">
-        <v>9196</v>
+        <v>9870</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="19"/>
@@ -8845,16 +8696,16 @@
         <v>14</v>
       </c>
       <c r="B5" s="21">
-        <v>35106</v>
+        <v>35146</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D5" s="20">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F5" s="20">
         <v>189</v>
@@ -8875,18 +8726,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="21">
-        <v>28768</v>
-      </c>
-      <c r="C6" s="20"/>
+        <v>29909</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>390</v>
+      </c>
       <c r="D6" s="21">
-        <v>1772</v>
-      </c>
-      <c r="E6" s="20"/>
+        <v>1813</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>391</v>
+      </c>
       <c r="F6" s="21">
         <v>2575</v>
       </c>
       <c r="G6" s="21">
-        <v>1141</v>
+        <v>1785</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="21"/>
@@ -8901,13 +8756,17 @@
         <v>17</v>
       </c>
       <c r="B7" s="21">
-        <v>24873</v>
-      </c>
-      <c r="C7" s="20"/>
+        <v>26159</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>392</v>
+      </c>
       <c r="D7" s="20">
-        <v>94</v>
-      </c>
-      <c r="E7" s="20"/>
+        <v>111</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>393</v>
+      </c>
       <c r="F7" s="20">
         <v>266</v>
       </c>
@@ -8931,9 +8790,11 @@
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="21">
-        <v>1685</v>
-      </c>
-      <c r="E8" s="20"/>
+        <v>1812</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>394</v>
+      </c>
       <c r="F8" s="21">
         <v>7913</v>
       </c>
@@ -8967,9 +8828,7 @@
         <v>1746</v>
       </c>
       <c r="I9" s="20"/>
-      <c r="J9" s="21">
-        <v>1</v>
-      </c>
+      <c r="J9" s="21"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -8981,15 +8840,15 @@
         <v>24</v>
       </c>
       <c r="B10" s="21">
-        <v>8897</v>
+        <v>8961</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="21">
-        <v>2909</v>
+        <v>3166</v>
       </c>
       <c r="G10" s="20">
         <v>0</v>
@@ -9007,13 +8866,17 @@
         <v>40</v>
       </c>
       <c r="B11" s="21">
-        <v>7474</v>
-      </c>
-      <c r="C11" s="20"/>
+        <v>7776</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>395</v>
+      </c>
       <c r="D11" s="20">
-        <v>98</v>
-      </c>
-      <c r="E11" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>396</v>
+      </c>
       <c r="F11" s="20">
         <v>131</v>
       </c>
@@ -9041,7 +8904,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="G12" s="20">
         <v>20</v>
@@ -9070,7 +8933,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="20">
-        <v>177</v>
+        <v>405</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
@@ -9082,21 +8945,25 @@
     </row>
     <row r="14" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="21">
-        <v>3582</v>
-      </c>
-      <c r="C14" s="20"/>
+        <v>3743</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>397</v>
+      </c>
       <c r="D14" s="20">
-        <v>16</v>
-      </c>
-      <c r="E14" s="20"/>
+        <v>88</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>398</v>
+      </c>
       <c r="F14" s="20">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="G14" s="20">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
@@ -9108,21 +8975,23 @@
     </row>
     <row r="15" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="21">
-        <v>3401</v>
-      </c>
-      <c r="C15" s="20"/>
+        <v>3679</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>399</v>
+      </c>
       <c r="D15" s="20">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20">
-        <v>340</v>
+        <v>9</v>
       </c>
       <c r="G15" s="20">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
@@ -9141,9 +9010,11 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20">
-        <v>7</v>
-      </c>
-      <c r="E16" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>400</v>
+      </c>
       <c r="F16" s="20">
         <v>6</v>
       </c>
@@ -9167,9 +9038,11 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20">
-        <v>21</v>
-      </c>
-      <c r="E17" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>401</v>
+      </c>
       <c r="F17" s="20">
         <v>16</v>
       </c>
@@ -9189,17 +9062,17 @@
         <v>49</v>
       </c>
       <c r="B18" s="21">
-        <v>1629</v>
+        <v>1709</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D18" s="20">
         <v>7</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G18" s="20">
         <v>0</v>
@@ -9214,21 +9087,23 @@
     </row>
     <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B19" s="21">
-        <v>1600</v>
-      </c>
-      <c r="C19" s="20"/>
+        <v>1604</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>403</v>
+      </c>
       <c r="D19" s="20">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" s="20">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
@@ -9240,21 +9115,21 @@
     </row>
     <row r="20" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B20" s="21">
-        <v>1546</v>
+        <v>1600</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G20" s="20">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
@@ -9269,15 +9144,17 @@
         <v>48</v>
       </c>
       <c r="B21" s="21">
-        <v>1510</v>
-      </c>
-      <c r="C21" s="20"/>
+        <v>1568</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>404</v>
+      </c>
       <c r="D21" s="20">
         <v>13</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G21" s="20">
         <v>46</v>
@@ -9292,21 +9169,25 @@
     </row>
     <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="21">
-        <v>1470</v>
-      </c>
-      <c r="C22" s="20"/>
+        <v>1518</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>405</v>
+      </c>
       <c r="D22" s="20">
-        <v>21</v>
-      </c>
-      <c r="E22" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>406</v>
+      </c>
       <c r="F22" s="20">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="G22" s="20">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
@@ -9318,21 +9199,21 @@
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="21">
-        <v>1306</v>
+        <v>1470</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="G23" s="20">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="21"/>
@@ -9370,21 +9251,23 @@
     </row>
     <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="21">
-        <v>1120</v>
-      </c>
-      <c r="C25" s="20"/>
+        <v>1238</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>407</v>
+      </c>
       <c r="D25" s="20">
         <v>1</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="G25" s="20">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="21"/>
@@ -9396,21 +9279,23 @@
     </row>
     <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="21">
-        <v>1101</v>
-      </c>
-      <c r="C26" s="20"/>
+        <v>1165</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>408</v>
+      </c>
       <c r="D26" s="20">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="G26" s="20">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="21"/>
@@ -9422,21 +9307,21 @@
     </row>
     <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="21">
-        <v>1071</v>
+        <v>1102</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="G27" s="20">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
@@ -9477,13 +9362,17 @@
         <v>59</v>
       </c>
       <c r="B29" s="20">
-        <v>799</v>
-      </c>
-      <c r="C29" s="20"/>
+        <v>804</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>409</v>
+      </c>
       <c r="D29" s="20">
-        <v>5</v>
-      </c>
-      <c r="E29" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>410</v>
+      </c>
       <c r="F29" s="20">
         <v>13</v>
       </c>
@@ -9552,21 +9441,23 @@
     </row>
     <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B32" s="20">
-        <v>712</v>
-      </c>
-      <c r="C32" s="20"/>
+        <v>721</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>411</v>
+      </c>
       <c r="D32" s="20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20">
-        <v>567</v>
+        <v>52</v>
       </c>
       <c r="G32" s="20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -9578,21 +9469,21 @@
     </row>
     <row r="33" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B33" s="20">
-        <v>634</v>
+        <v>712</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20">
-        <v>13</v>
+        <v>567</v>
       </c>
       <c r="G33" s="20">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -9604,18 +9495,20 @@
     </row>
     <row r="34" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="20">
-        <v>632</v>
-      </c>
-      <c r="C34" s="20"/>
+        <v>686</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>412</v>
+      </c>
       <c r="D34" s="20">
         <v>1</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" s="20">
         <v>0</v>
@@ -9630,21 +9523,23 @@
     </row>
     <row r="35" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B35" s="20">
-        <v>626</v>
-      </c>
-      <c r="C35" s="20"/>
+        <v>649</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>413</v>
+      </c>
       <c r="D35" s="20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G35" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -9656,21 +9551,21 @@
     </row>
     <row r="36" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B36" s="20">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G36" s="20">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
@@ -9682,21 +9577,23 @@
     </row>
     <row r="37" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B37" s="20">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20">
-        <v>1</v>
-      </c>
-      <c r="E37" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>414</v>
+      </c>
       <c r="F37" s="20">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G37" s="20">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
@@ -9708,21 +9605,25 @@
     </row>
     <row r="38" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B38" s="20">
-        <v>568</v>
-      </c>
-      <c r="C38" s="20"/>
+        <v>579</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>415</v>
+      </c>
       <c r="D38" s="20">
-        <v>1</v>
-      </c>
-      <c r="E38" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="F38" s="20">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G38" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
@@ -9734,21 +9635,21 @@
     </row>
     <row r="39" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B39" s="20">
-        <v>514</v>
+        <v>568</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G39" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
@@ -9812,21 +9713,25 @@
     </row>
     <row r="42" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B42" s="20">
-        <v>455</v>
-      </c>
-      <c r="C42" s="20"/>
+        <v>462</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>417</v>
+      </c>
       <c r="D42" s="20">
-        <v>2</v>
-      </c>
-      <c r="E42" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>418</v>
+      </c>
       <c r="F42" s="20">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="G42" s="20">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -9838,21 +9743,21 @@
     </row>
     <row r="43" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="20">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="G43" s="20">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -9864,21 +9769,23 @@
     </row>
     <row r="44" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" s="20">
-        <v>414</v>
-      </c>
-      <c r="C44" s="20"/>
+        <v>438</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>419</v>
+      </c>
       <c r="D44" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G44" s="20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
@@ -9890,21 +9797,23 @@
     </row>
     <row r="45" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B45" s="20">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20">
-        <v>7</v>
-      </c>
-      <c r="E45" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>420</v>
+      </c>
       <c r="F45" s="20">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="G45" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -9916,21 +9825,25 @@
     </row>
     <row r="46" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="20">
-        <v>380</v>
-      </c>
-      <c r="C46" s="20"/>
+        <v>425</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>421</v>
+      </c>
       <c r="D46" s="20">
-        <v>25</v>
-      </c>
-      <c r="E46" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>400</v>
+      </c>
       <c r="F46" s="20">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G46" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -9942,21 +9855,23 @@
     </row>
     <row r="47" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B47" s="20">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20">
-        <v>1</v>
-      </c>
-      <c r="E47" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>422</v>
+      </c>
       <c r="F47" s="20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G47" s="20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -9994,21 +9909,23 @@
     </row>
     <row r="49" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B49" s="20">
-        <v>334</v>
-      </c>
-      <c r="C49" s="20"/>
+        <v>357</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>423</v>
+      </c>
       <c r="D49" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="G49" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -10020,18 +9937,20 @@
     </row>
     <row r="50" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" s="20">
-        <v>327</v>
-      </c>
-      <c r="C50" s="20"/>
+        <v>352</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>424</v>
+      </c>
       <c r="D50" s="20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="G50" s="20">
         <v>0</v>
@@ -10046,21 +9965,23 @@
     </row>
     <row r="51" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="20">
-        <v>326</v>
-      </c>
-      <c r="C51" s="20"/>
+        <v>337</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>425</v>
+      </c>
       <c r="D51" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="G51" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -10072,21 +9993,21 @@
     </row>
     <row r="52" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" s="20">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="G52" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -10103,7 +10024,9 @@
       <c r="B53" s="20">
         <v>316</v>
       </c>
-      <c r="C53" s="20"/>
+      <c r="C53" s="20" t="s">
+        <v>426</v>
+      </c>
       <c r="D53" s="20">
         <v>2</v>
       </c>
@@ -10150,18 +10073,20 @@
     </row>
     <row r="55" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="20">
-        <v>274</v>
-      </c>
-      <c r="C55" s="20"/>
+        <v>306</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>427</v>
+      </c>
       <c r="D55" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G55" s="20">
         <v>0</v>
@@ -10176,18 +10101,18 @@
     </row>
     <row r="56" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B56" s="20">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G56" s="20">
         <v>0</v>
@@ -10202,18 +10127,18 @@
     </row>
     <row r="57" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B57" s="20">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G57" s="20">
         <v>0</v>
@@ -10254,18 +10179,20 @@
     </row>
     <row r="59" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="20">
-        <v>233</v>
-      </c>
-      <c r="C59" s="20"/>
+        <v>235</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>428</v>
+      </c>
       <c r="D59" s="20">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="G59" s="20">
         <v>0</v>
@@ -10280,18 +10207,18 @@
     </row>
     <row r="60" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B60" s="20">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="20">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G60" s="20">
         <v>0</v>
@@ -10384,18 +10311,20 @@
     </row>
     <row r="64" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B64" s="20">
-        <v>194</v>
-      </c>
-      <c r="C64" s="20"/>
+        <v>195</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>429</v>
+      </c>
       <c r="D64" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G64" s="20">
         <v>0</v>
@@ -10410,10 +10339,10 @@
     </row>
     <row r="65" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" s="20">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="20">
@@ -10421,10 +10350,10 @@
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G65" s="20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
@@ -10439,9 +10368,11 @@
         <v>96</v>
       </c>
       <c r="B66" s="20">
-        <v>187</v>
-      </c>
-      <c r="C66" s="20"/>
+        <v>190</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>430</v>
+      </c>
       <c r="D66" s="20">
         <v>3</v>
       </c>
@@ -10450,7 +10381,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
@@ -10462,21 +10393,23 @@
     </row>
     <row r="67" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B67" s="20">
-        <v>185</v>
-      </c>
-      <c r="C67" s="20"/>
+        <v>189</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>431</v>
+      </c>
       <c r="D67" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G67" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
@@ -10488,21 +10421,21 @@
     </row>
     <row r="68" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" s="20">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G68" s="20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
@@ -10514,18 +10447,20 @@
     </row>
     <row r="69" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="20">
-        <v>169</v>
-      </c>
-      <c r="C69" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>432</v>
+      </c>
       <c r="D69" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G69" s="20">
         <v>0</v>
@@ -10540,21 +10475,21 @@
     </row>
     <row r="70" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B70" s="20">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G70" s="20">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
@@ -10566,21 +10501,25 @@
     </row>
     <row r="71" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B71" s="20">
-        <v>153</v>
-      </c>
-      <c r="C71" s="20"/>
+        <v>167</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>433</v>
+      </c>
       <c r="D71" s="20">
-        <v>2</v>
-      </c>
-      <c r="E71" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>434</v>
+      </c>
       <c r="F71" s="20">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G71" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
@@ -10592,21 +10531,21 @@
     </row>
     <row r="72" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B72" s="20">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
@@ -10618,14 +10557,16 @@
     </row>
     <row r="73" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B73" s="20">
-        <v>139</v>
-      </c>
-      <c r="C73" s="20"/>
+        <v>154</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>435</v>
+      </c>
       <c r="D73" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20">
@@ -10644,10 +10585,10 @@
     </row>
     <row r="74" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B74" s="20">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C74" s="20"/>
       <c r="D74" s="20">
@@ -10655,10 +10596,10 @@
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="20">
+        <v>38</v>
+      </c>
+      <c r="G74" s="20">
         <v>2</v>
-      </c>
-      <c r="G74" s="20">
-        <v>1</v>
       </c>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
@@ -10670,21 +10611,21 @@
     </row>
     <row r="75" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" s="20">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="20">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G75" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -10699,9 +10640,11 @@
         <v>111</v>
       </c>
       <c r="B76" s="20">
-        <v>126</v>
-      </c>
-      <c r="C76" s="20"/>
+        <v>128</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="D76" s="20">
         <v>1</v>
       </c>
@@ -10725,9 +10668,11 @@
         <v>107</v>
       </c>
       <c r="B77" s="20">
-        <v>115</v>
-      </c>
-      <c r="C77" s="20"/>
+        <v>122</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>437</v>
+      </c>
       <c r="D77" s="20">
         <v>4</v>
       </c>
@@ -10748,18 +10693,20 @@
     </row>
     <row r="78" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B78" s="20">
-        <v>115</v>
-      </c>
-      <c r="C78" s="20"/>
+        <v>121</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>438</v>
+      </c>
       <c r="D78" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="20">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G78" s="20">
         <v>0</v>
@@ -10774,18 +10721,18 @@
     </row>
     <row r="79" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B79" s="20">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C79" s="20"/>
       <c r="D79" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="20">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G79" s="20">
         <v>0</v>
@@ -10930,12 +10877,14 @@
     </row>
     <row r="85" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B85" s="20">
-        <v>90</v>
-      </c>
-      <c r="C85" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>439</v>
+      </c>
       <c r="D85" s="20">
         <v>0</v>
       </c>
@@ -10944,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="G85" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
@@ -10956,21 +10905,21 @@
     </row>
     <row r="86" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B86" s="20">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C86" s="20"/>
       <c r="D86" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20">
         <v>2</v>
       </c>
       <c r="G86" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86" s="20"/>
       <c r="J86" s="20"/>
@@ -10982,21 +10931,23 @@
     </row>
     <row r="87" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B87" s="20">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87" s="20"/>
       <c r="D87" s="20">
-        <v>0</v>
-      </c>
-      <c r="E87" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>440</v>
+      </c>
       <c r="F87" s="20">
         <v>2</v>
       </c>
       <c r="G87" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
@@ -11008,18 +10959,20 @@
     </row>
     <row r="88" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B88" s="20">
-        <v>84</v>
-      </c>
-      <c r="C88" s="20"/>
+        <v>87</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>441</v>
+      </c>
       <c r="D88" s="20">
         <v>0</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88" s="20">
         <v>0</v>
@@ -11034,18 +10987,20 @@
     </row>
     <row r="89" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B89" s="20">
-        <v>82</v>
-      </c>
-      <c r="C89" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>442</v>
+      </c>
       <c r="D89" s="20">
         <v>0</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G89" s="20">
         <v>0</v>
@@ -11060,12 +11015,14 @@
     </row>
     <row r="90" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B90" s="20">
-        <v>76</v>
-      </c>
-      <c r="C90" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>443</v>
+      </c>
       <c r="D90" s="20">
         <v>0</v>
       </c>
@@ -11074,7 +11031,7 @@
         <v>15</v>
       </c>
       <c r="G90" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
@@ -11086,18 +11043,18 @@
     </row>
     <row r="91" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B91" s="20">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G91" s="20">
         <v>0</v>
@@ -11112,18 +11069,18 @@
     </row>
     <row r="92" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B92" s="20">
         <v>75</v>
       </c>
       <c r="C92" s="20"/>
       <c r="D92" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G92" s="20">
         <v>0</v>
@@ -11138,18 +11095,18 @@
     </row>
     <row r="93" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B93" s="20">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G93" s="20">
         <v>0</v>
@@ -11164,21 +11121,21 @@
     </row>
     <row r="94" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B94" s="20">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G94" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" s="20"/>
       <c r="J94" s="20"/>
@@ -11216,18 +11173,20 @@
     </row>
     <row r="96" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B96" s="20">
-        <v>65</v>
-      </c>
-      <c r="C96" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>444</v>
+      </c>
       <c r="D96" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G96" s="20">
         <v>0</v>
@@ -11242,18 +11201,18 @@
     </row>
     <row r="97" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B97" s="20">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G97" s="20">
         <v>0</v>
@@ -11268,18 +11227,20 @@
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B98" s="20">
-        <v>59</v>
-      </c>
-      <c r="C98" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>445</v>
+      </c>
       <c r="D98" s="20">
         <v>0</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G98" s="20">
         <v>0</v>
@@ -11294,10 +11255,10 @@
     </row>
     <row r="99" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B99" s="20">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="20">
@@ -11320,21 +11281,23 @@
     </row>
     <row r="100" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="B100" s="20">
-        <v>54</v>
-      </c>
-      <c r="C100" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>446</v>
+      </c>
       <c r="D100" s="20">
         <v>0</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
@@ -11346,10 +11309,10 @@
     </row>
     <row r="101" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B101" s="20">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="20">
@@ -11357,10 +11320,10 @@
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G101" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
@@ -11372,10 +11335,10 @@
     </row>
     <row r="102" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B102" s="20">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="20">
@@ -11398,12 +11361,14 @@
     </row>
     <row r="103" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B103" s="20">
-        <v>43</v>
-      </c>
-      <c r="C103" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>447</v>
+      </c>
       <c r="D103" s="20">
         <v>0</v>
       </c>
@@ -11424,18 +11389,20 @@
     </row>
     <row r="104" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B104" s="20">
-        <v>40</v>
-      </c>
-      <c r="C104" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>448</v>
+      </c>
       <c r="D104" s="20">
         <v>0</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G104" s="20">
         <v>0</v>
@@ -11476,12 +11443,14 @@
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B106" s="20">
         <v>35</v>
       </c>
-      <c r="C106" s="20"/>
+      <c r="C106" s="20" t="s">
+        <v>449</v>
+      </c>
       <c r="D106" s="20">
         <v>1</v>
       </c>
@@ -11490,7 +11459,7 @@
         <v>2</v>
       </c>
       <c r="G106" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" s="20"/>
       <c r="J106" s="20"/>
@@ -11502,21 +11471,21 @@
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B107" s="20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" s="20"/>
       <c r="J107" s="20"/>
@@ -11528,18 +11497,18 @@
     </row>
     <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B108" s="20">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G108" s="20">
         <v>0</v>
@@ -11554,18 +11523,22 @@
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B109" s="20">
-        <v>30</v>
-      </c>
-      <c r="C109" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>450</v>
+      </c>
       <c r="D109" s="20">
-        <v>1</v>
-      </c>
-      <c r="E109" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>422</v>
+      </c>
       <c r="F109" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G109" s="20">
         <v>0</v>
@@ -11580,18 +11553,18 @@
     </row>
     <row r="110" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B110" s="20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C110" s="20"/>
       <c r="D110" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G110" s="20">
         <v>0</v>
@@ -11606,10 +11579,10 @@
     </row>
     <row r="111" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B111" s="20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C111" s="20"/>
       <c r="D111" s="20">
@@ -11632,14 +11605,14 @@
     </row>
     <row r="112" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B112" s="20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C112" s="20"/>
       <c r="D112" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20">
@@ -11658,18 +11631,20 @@
     </row>
     <row r="113" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B113" s="20">
         <v>27</v>
       </c>
-      <c r="C113" s="20"/>
+      <c r="C113" s="20" t="s">
+        <v>451</v>
+      </c>
       <c r="D113" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G113" s="20">
         <v>0</v>
@@ -11710,18 +11685,20 @@
     </row>
     <row r="115" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="20" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B115" s="20">
-        <v>24</v>
-      </c>
-      <c r="C115" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>452</v>
+      </c>
       <c r="D115" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G115" s="20">
         <v>0</v>
@@ -11736,18 +11713,20 @@
     </row>
     <row r="116" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B116" s="20">
-        <v>23</v>
-      </c>
-      <c r="C116" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>453</v>
+      </c>
       <c r="D116" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" s="20">
         <v>0</v>
@@ -11762,21 +11741,21 @@
     </row>
     <row r="117" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B117" s="20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C117" s="20"/>
       <c r="D117" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
@@ -11788,10 +11767,10 @@
     </row>
     <row r="118" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="20" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B118" s="20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="20">
@@ -11802,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" s="20"/>
       <c r="J118" s="20"/>
@@ -11814,18 +11793,20 @@
     </row>
     <row r="119" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B119" s="20">
-        <v>19</v>
-      </c>
-      <c r="C119" s="20"/>
+        <v>22</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>454</v>
+      </c>
       <c r="D119" s="20">
         <v>1</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G119" s="20">
         <v>0</v>
@@ -11840,7 +11821,7 @@
     </row>
     <row r="120" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B120" s="20">
         <v>19</v>
@@ -11851,7 +11832,7 @@
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G120" s="20">
         <v>0</v>
@@ -11892,7 +11873,7 @@
     </row>
     <row r="122" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B122" s="20">
         <v>19</v>
@@ -11918,14 +11899,14 @@
     </row>
     <row r="123" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B123" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C123" s="20"/>
       <c r="D123" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20">
@@ -11944,10 +11925,10 @@
     </row>
     <row r="124" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B124" s="20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" s="20">
@@ -11955,7 +11936,7 @@
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G124" s="20">
         <v>0</v>
@@ -11970,10 +11951,10 @@
     </row>
     <row r="125" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B125" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C125" s="20"/>
       <c r="D125" s="20">
@@ -11981,7 +11962,7 @@
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G125" s="20">
         <v>0</v>
@@ -11996,21 +11977,23 @@
     </row>
     <row r="126" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B126" s="20">
-        <v>15</v>
-      </c>
-      <c r="C126" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>455</v>
+      </c>
       <c r="D126" s="20">
         <v>0</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G126" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="20"/>
@@ -12022,10 +12005,10 @@
     </row>
     <row r="127" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B127" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C127" s="20"/>
       <c r="D127" s="20">
@@ -12033,7 +12016,7 @@
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="20">
         <v>0</v>
@@ -12048,10 +12031,10 @@
     </row>
     <row r="128" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B128" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C128" s="20"/>
       <c r="D128" s="20">
@@ -12059,10 +12042,10 @@
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="20">
+        <v>2</v>
+      </c>
+      <c r="G128" s="20">
         <v>1</v>
-      </c>
-      <c r="G128" s="20">
-        <v>0</v>
       </c>
       <c r="I128" s="20"/>
       <c r="J128" s="20"/>
@@ -12074,10 +12057,10 @@
     </row>
     <row r="129" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="20" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B129" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C129" s="20"/>
       <c r="D129" s="20">
@@ -12100,7 +12083,7 @@
     </row>
     <row r="130" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B130" s="20">
         <v>14</v>
@@ -12137,7 +12120,7 @@
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G131" s="20">
         <v>0</v>
@@ -12282,12 +12265,14 @@
     </row>
     <row r="137" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B137" s="20">
-        <v>7</v>
-      </c>
-      <c r="C137" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>456</v>
+      </c>
       <c r="D137" s="20">
         <v>0</v>
       </c>
@@ -12296,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" s="20"/>
       <c r="J137" s="20"/>
@@ -12308,10 +12293,10 @@
     </row>
     <row r="138" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B138" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" s="20"/>
       <c r="D138" s="20">
@@ -12322,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" s="20"/>
       <c r="J138" s="20"/>
@@ -12334,14 +12319,14 @@
     </row>
     <row r="139" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="20">
@@ -12360,14 +12345,14 @@
     </row>
     <row r="140" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B140" s="20">
         <v>5</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="20">
@@ -12386,7 +12371,7 @@
     </row>
     <row r="141" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B141" s="20">
         <v>5</v>
@@ -12412,12 +12397,14 @@
     </row>
     <row r="142" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B142" s="20">
-        <v>4</v>
-      </c>
-      <c r="C142" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>440</v>
+      </c>
       <c r="D142" s="20">
         <v>0</v>
       </c>
@@ -12438,10 +12425,10 @@
     </row>
     <row r="143" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B143" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C143" s="20"/>
       <c r="D143" s="20">
@@ -12464,7 +12451,7 @@
     </row>
     <row r="144" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B144" s="20">
         <v>4</v>
@@ -12490,7 +12477,7 @@
     </row>
     <row r="145" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B145" s="20">
         <v>4</v>
@@ -12516,14 +12503,14 @@
     </row>
     <row r="146" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B146" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C146" s="20"/>
       <c r="D146" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="20">
@@ -12542,14 +12529,14 @@
     </row>
     <row r="147" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B147" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C147" s="20"/>
       <c r="D147" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="20">
@@ -12568,14 +12555,14 @@
     </row>
     <row r="148" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B148" s="20">
         <v>3</v>
       </c>
       <c r="C148" s="20"/>
       <c r="D148" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="20">
@@ -12594,14 +12581,14 @@
     </row>
     <row r="149" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B149" s="20">
         <v>3</v>
       </c>
       <c r="C149" s="20"/>
       <c r="D149" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="20">
@@ -12620,7 +12607,7 @@
     </row>
     <row r="150" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B150" s="20">
         <v>3</v>
@@ -12646,7 +12633,7 @@
     </row>
     <row r="151" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B151" s="20">
         <v>3</v>
@@ -12672,7 +12659,7 @@
     </row>
     <row r="152" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B152" s="20">
         <v>3</v>
@@ -12698,12 +12685,14 @@
     </row>
     <row r="153" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="20" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B153" s="20">
-        <v>2</v>
-      </c>
-      <c r="C153" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>422</v>
+      </c>
       <c r="D153" s="20">
         <v>0</v>
       </c>
@@ -12724,10 +12713,10 @@
     </row>
     <row r="154" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B154" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" s="20"/>
       <c r="D154" s="20">
@@ -12750,7 +12739,7 @@
     </row>
     <row r="155" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B155" s="20">
         <v>2</v>
@@ -12776,7 +12765,7 @@
     </row>
     <row r="156" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B156" s="20">
         <v>2</v>
@@ -12802,7 +12791,7 @@
     </row>
     <row r="157" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B157" s="20">
         <v>2</v>
@@ -12828,7 +12817,7 @@
     </row>
     <row r="158" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B158" s="20">
         <v>2</v>
@@ -12854,7 +12843,7 @@
     </row>
     <row r="159" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B159" s="20">
         <v>2</v>
@@ -12880,14 +12869,14 @@
     </row>
     <row r="160" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B160" s="20">
         <v>2</v>
       </c>
       <c r="C160" s="20"/>
       <c r="D160" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" s="20"/>
       <c r="F160" s="20">
@@ -12906,14 +12895,14 @@
     </row>
     <row r="161" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B161" s="20">
         <v>2</v>
       </c>
       <c r="C161" s="20"/>
       <c r="D161" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="20">
@@ -12932,18 +12921,20 @@
     </row>
     <row r="162" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B162" s="20">
         <v>2</v>
       </c>
-      <c r="C162" s="20"/>
+      <c r="C162" s="20" t="s">
+        <v>457</v>
+      </c>
       <c r="D162" s="20">
         <v>0</v>
       </c>
       <c r="E162" s="20"/>
       <c r="F162" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" s="20">
         <v>0</v>
@@ -12958,7 +12949,7 @@
     </row>
     <row r="163" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B163" s="20">
         <v>2</v>
@@ -12984,10 +12975,10 @@
     </row>
     <row r="164" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="20" t="s">
-        <v>389</v>
+        <v>192</v>
       </c>
       <c r="B164" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" s="20"/>
       <c r="D164" s="20">
@@ -13010,7 +13001,7 @@
     </row>
     <row r="165" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="20" t="s">
-        <v>194</v>
+        <v>458</v>
       </c>
       <c r="B165" s="20">
         <v>1</v>
@@ -13036,7 +13027,7 @@
     </row>
     <row r="166" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="20" t="s">
-        <v>195</v>
+        <v>386</v>
       </c>
       <c r="B166" s="20">
         <v>1</v>
@@ -13062,7 +13053,7 @@
     </row>
     <row r="167" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B167" s="20">
         <v>1</v>
@@ -13088,7 +13079,7 @@
     </row>
     <row r="168" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B168" s="20">
         <v>1</v>
@@ -13114,7 +13105,7 @@
     </row>
     <row r="169" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B169" s="20">
         <v>1</v>
@@ -13140,7 +13131,7 @@
     </row>
     <row r="170" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B170" s="20">
         <v>1</v>
@@ -13166,7 +13157,7 @@
     </row>
     <row r="171" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B171" s="20">
         <v>1</v>
@@ -13192,7 +13183,7 @@
     </row>
     <row r="172" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B172" s="20">
         <v>1</v>
@@ -13218,14 +13209,14 @@
     </row>
     <row r="173" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B173" s="20">
         <v>1</v>
       </c>
       <c r="C173" s="20"/>
       <c r="D173" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" s="20"/>
       <c r="F173" s="20">
@@ -13244,7 +13235,7 @@
     </row>
     <row r="174" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="20" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B174" s="20">
         <v>1</v>
@@ -13255,7 +13246,7 @@
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174" s="20">
         <v>0</v>
@@ -13270,7 +13261,7 @@
     </row>
     <row r="175" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B175" s="20">
         <v>1</v>
@@ -13293,6 +13284,32 @@
       <c r="M175" s="20"/>
       <c r="N175" s="20"/>
       <c r="O175" s="20"/>
+    </row>
+    <row r="176" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A176" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B176" s="20">
+        <v>1</v>
+      </c>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20">
+        <v>0</v>
+      </c>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20">
+        <v>0</v>
+      </c>
+      <c r="G176" s="20">
+        <v>0</v>
+      </c>
+      <c r="I176" s="20"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
+      <c r="M176" s="20"/>
+      <c r="N176" s="20"/>
+      <c r="O176" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/world.xlsx
+++ b/world.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bibhadhungel/Desktop/webpage/covidnepal.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D8F761-27EC-144D-A134-4711C732F2B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D2A4B2-692D-4446-AA4B-464D4088B182}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{B828C8E6-3DF2-B446-9890-8798DF3827A5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4818" uniqueCount="1719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4819" uniqueCount="1720">
   <si>
     <t>NAME</t>
   </si>
@@ -5220,11 +5220,17 @@
   <si>
     <t>सिएरा लियोन</t>
   </si>
+  <si>
+    <t>↑ 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-4000439]0"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5414,7 +5420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5507,6 +5513,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5909,7 +5916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF73547E-55C3-6141-9063-A7F13F7F6538}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B191" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
       <selection activeCell="J205" sqref="J205"/>
     </sheetView>
   </sheetViews>
@@ -5967,11 +5974,11 @@
       </c>
       <c r="C3" s="38">
         <f>INDEX(Update!B3:'Update'!B190,MATCH($A$3,$A$4:$A$191,0))</f>
-        <v>5</v>
-      </c>
-      <c r="D3" s="38">
+        <v>6</v>
+      </c>
+      <c r="D3" s="38" t="str">
         <f>INDEX(Update!C3:'Update'!C190,MATCH($A$3,$A$4:$A$191,0))</f>
-        <v>0</v>
+        <v>↑ 1</v>
       </c>
       <c r="E3" s="38">
         <f>INDEX(Update!D3:'Update'!D190,MATCH($A$3,$A$4:$A$191,0))</f>
@@ -13364,11 +13371,11 @@
       </c>
       <c r="C188" s="33">
         <f>IF(Update!B187&lt;&gt;"",Update!B187, "")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D188" s="33" t="str">
         <f>IF(Update!C187&lt;&gt;"",Update!C187,"")</f>
-        <v/>
+        <v>↑ 1</v>
       </c>
       <c r="E188" s="34">
         <f>IF(Update!D187&lt;&gt;"",Update!D187,"")</f>
@@ -18111,8 +18118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0397B718-82F4-294E-94DA-9DC5C924B206}">
   <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G200"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25688,10 +25695,12 @@
       <c r="A187" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="B187" s="4">
-        <v>5</v>
-      </c>
-      <c r="C187" s="4"/>
+      <c r="B187" s="40">
+        <v>6</v>
+      </c>
+      <c r="C187" s="40" t="s">
+        <v>1719</v>
+      </c>
       <c r="D187" s="4">
         <v>0</v>
       </c>
